--- a/investment dictionary.xlsx
+++ b/investment dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Documents/Employ America - MIT Data Viewer/Ingestion Pipeline Refactor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Documents/Employ America - MIT Data Viewer/MIT App Working Folder/Last Working Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357476B-C25A-0A47-AA79-1CD7744851EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11411762-AE26-F34A-88BD-0361DC3FC895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="660" windowWidth="27860" windowHeight="16940" xr2:uid="{0F44D3E6-F285-C344-9A66-5814EE0BA308}"/>
+    <workbookView xWindow="520" yWindow="660" windowWidth="42280" windowHeight="34660" xr2:uid="{0F44D3E6-F285-C344-9A66-5814EE0BA308}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="300">
   <si>
     <t>A756RC</t>
   </si>
@@ -898,18 +898,6 @@
     <t>Y032RX</t>
   </si>
   <si>
-    <t>Structures Investment (Nominal)</t>
-  </si>
-  <si>
-    <t>Structures Investment (2017 Dollars)</t>
-  </si>
-  <si>
-    <t>Equipment Investment (Nominal)</t>
-  </si>
-  <si>
-    <t>Equipment Investment (2017 Dollars)</t>
-  </si>
-  <si>
     <t>NAICS_Name</t>
   </si>
   <si>
@@ -923,13 +911,37 @@
   </si>
   <si>
     <t xml:space="preserve">    Other Other Structures</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dollars</t>
+  </si>
+  <si>
+    <t>Structures Investment</t>
+  </si>
+  <si>
+    <t>2017 Dollars</t>
+  </si>
+  <si>
+    <t>Real Structures Investment</t>
+  </si>
+  <si>
+    <t>Equipment Investment</t>
+  </si>
+  <si>
+    <t>Real Equipment Investment</t>
+  </si>
+  <si>
+    <t>NAICS_Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -942,6 +954,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Lato"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1286,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359D7C5-C337-8B40-B8BA-5824DF6351FA}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -1299,18 +1316,24 @@
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" t="s">
         <v>292</v>
       </c>
-      <c r="C1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -1318,10 +1341,16 @@
         <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1329,10 +1358,16 @@
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -1340,10 +1375,16 @@
         <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -1351,10 +1392,16 @@
         <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -1362,10 +1409,16 @@
         <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -1373,10 +1426,16 @@
         <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -1384,10 +1443,16 @@
         <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -1395,10 +1460,16 @@
         <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1406,10 +1477,16 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -1417,10 +1494,16 @@
         <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -1428,10 +1511,16 @@
         <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -1439,10 +1528,16 @@
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1450,10 +1545,16 @@
         <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1461,10 +1562,16 @@
         <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -1472,10 +1579,16 @@
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -1483,10 +1596,16 @@
         <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1494,10 +1613,16 @@
         <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1505,10 +1630,16 @@
         <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1516,10 +1647,16 @@
         <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E20">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -1527,10 +1664,16 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1538,10 +1681,16 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1549,10 +1698,16 @@
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1560,10 +1715,16 @@
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1571,10 +1732,16 @@
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1582,10 +1749,16 @@
         <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1593,10 +1766,16 @@
         <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1604,10 +1783,16 @@
         <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1615,10 +1800,16 @@
         <v>40</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -1626,10 +1817,16 @@
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1637,10 +1834,16 @@
         <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D31" t="s">
+        <v>293</v>
+      </c>
+      <c r="E31">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1648,10 +1851,16 @@
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1659,10 +1868,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D33" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1670,21 +1885,33 @@
         <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D34" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1692,10 +1919,16 @@
         <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D36" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1703,10 +1936,16 @@
         <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E37">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -1714,10 +1953,16 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E38">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1725,10 +1970,16 @@
         <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D39" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -1736,10 +1987,16 @@
         <v>20</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D40" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,10 +2004,16 @@
         <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,10 +2021,16 @@
         <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -1769,10 +2038,16 @@
         <v>14</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E43">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1780,10 +2055,16 @@
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D44" t="s">
+        <v>293</v>
+      </c>
+      <c r="E44">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -1791,10 +2072,16 @@
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E45">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -1802,10 +2089,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D46" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1813,10 +2106,16 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D47" t="s">
+        <v>293</v>
+      </c>
+      <c r="E47">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1824,10 +2123,16 @@
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D48" t="s">
+        <v>293</v>
+      </c>
+      <c r="E48">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1835,10 +2140,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D49" t="s">
+        <v>293</v>
+      </c>
+      <c r="E49">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1846,10 +2157,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D50" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -1857,10 +2174,16 @@
         <v>145</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
@@ -1868,10 +2191,16 @@
         <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D52" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -1879,10 +2208,16 @@
         <v>143</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D53" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>88</v>
       </c>
@@ -1890,10 +2225,16 @@
         <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D54" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
@@ -1901,10 +2242,16 @@
         <v>141</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D55" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>84</v>
       </c>
@@ -1912,10 +2259,16 @@
         <v>140</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D56" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -1923,10 +2276,16 @@
         <v>139</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D57" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -1934,10 +2293,16 @@
         <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D58" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -1945,10 +2310,16 @@
         <v>137</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D59" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -1956,10 +2327,16 @@
         <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D60" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -1967,10 +2344,16 @@
         <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D61" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -1978,10 +2361,16 @@
         <v>134</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D62" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
@@ -1989,10 +2378,16 @@
         <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D63" t="s">
+        <v>295</v>
+      </c>
+      <c r="E63">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2000,10 +2395,16 @@
         <v>132</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D64" t="s">
+        <v>295</v>
+      </c>
+      <c r="E64">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2011,10 +2412,16 @@
         <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2022,10 +2429,16 @@
         <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D66" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
@@ -2033,10 +2446,16 @@
         <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D67" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2044,10 +2463,16 @@
         <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D68" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>58</v>
       </c>
@@ -2055,10 +2480,16 @@
         <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D69" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,10 +2497,16 @@
         <v>126</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D70" t="s">
+        <v>295</v>
+      </c>
+      <c r="E70">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>54</v>
       </c>
@@ -2077,10 +2514,16 @@
         <v>125</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D71" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>52</v>
       </c>
@@ -2088,10 +2531,16 @@
         <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D72" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
@@ -2099,10 +2548,16 @@
         <v>123</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D73" t="s">
+        <v>295</v>
+      </c>
+      <c r="E73">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>48</v>
       </c>
@@ -2110,10 +2565,16 @@
         <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D74" t="s">
+        <v>295</v>
+      </c>
+      <c r="E74">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
@@ -2121,10 +2582,16 @@
         <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D75" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>45</v>
       </c>
@@ -2132,10 +2599,16 @@
         <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E76">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
@@ -2143,10 +2616,16 @@
         <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D77" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>41</v>
       </c>
@@ -2154,10 +2633,16 @@
         <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D78" t="s">
+        <v>295</v>
+      </c>
+      <c r="E78">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>39</v>
       </c>
@@ -2165,10 +2650,16 @@
         <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D79" t="s">
+        <v>295</v>
+      </c>
+      <c r="E79">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>37</v>
       </c>
@@ -2176,10 +2667,16 @@
         <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>295</v>
+      </c>
+      <c r="E80">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>35</v>
       </c>
@@ -2187,10 +2684,16 @@
         <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D81" t="s">
+        <v>295</v>
+      </c>
+      <c r="E81">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>33</v>
       </c>
@@ -2198,10 +2701,16 @@
         <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D82" t="s">
+        <v>295</v>
+      </c>
+      <c r="E82">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -2209,21 +2718,33 @@
         <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D83" t="s">
+        <v>295</v>
+      </c>
+      <c r="E83">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D84" t="s">
+        <v>295</v>
+      </c>
+      <c r="E84">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,10 +2752,16 @@
         <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D85" t="s">
+        <v>295</v>
+      </c>
+      <c r="E85">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -2242,10 +2769,16 @@
         <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D86" t="s">
+        <v>295</v>
+      </c>
+      <c r="E86">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>25</v>
       </c>
@@ -2253,10 +2786,16 @@
         <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D87" t="s">
+        <v>295</v>
+      </c>
+      <c r="E87">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>23</v>
       </c>
@@ -2264,10 +2803,16 @@
         <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D88" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -2275,10 +2820,16 @@
         <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D89" t="s">
+        <v>295</v>
+      </c>
+      <c r="E89">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -2286,10 +2837,16 @@
         <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D90" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -2297,10 +2854,16 @@
         <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D91" t="s">
+        <v>295</v>
+      </c>
+      <c r="E91">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -2308,10 +2871,16 @@
         <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D92" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -2319,10 +2888,16 @@
         <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D93" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
@@ -2330,10 +2905,16 @@
         <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D94" t="s">
+        <v>295</v>
+      </c>
+      <c r="E94">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -2341,10 +2922,16 @@
         <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D95" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -2352,10 +2939,16 @@
         <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D96" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -2363,10 +2956,16 @@
         <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D97" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -2374,10 +2973,16 @@
         <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D98" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -2385,10 +2990,16 @@
         <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D99" t="s">
+        <v>295</v>
+      </c>
+      <c r="E99">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -2396,10 +3007,16 @@
         <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D100" t="s">
+        <v>295</v>
+      </c>
+      <c r="E100">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>236</v>
       </c>
@@ -2407,10 +3024,16 @@
         <v>235</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>234</v>
       </c>
@@ -2418,10 +3041,16 @@
         <v>233</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D102" t="s">
+        <v>293</v>
+      </c>
+      <c r="E102">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>232</v>
       </c>
@@ -2429,10 +3058,16 @@
         <v>231</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D103" t="s">
+        <v>293</v>
+      </c>
+      <c r="E103">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>230</v>
       </c>
@@ -2440,10 +3075,16 @@
         <v>229</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D104" t="s">
+        <v>293</v>
+      </c>
+      <c r="E104">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>228</v>
       </c>
@@ -2451,10 +3092,16 @@
         <v>227</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D105" t="s">
+        <v>293</v>
+      </c>
+      <c r="E105">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>226</v>
       </c>
@@ -2462,10 +3109,16 @@
         <v>225</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D106" t="s">
+        <v>293</v>
+      </c>
+      <c r="E106">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
@@ -2473,10 +3126,16 @@
         <v>223</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D107" t="s">
+        <v>293</v>
+      </c>
+      <c r="E107">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>222</v>
       </c>
@@ -2484,10 +3143,16 @@
         <v>221</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D108" t="s">
+        <v>293</v>
+      </c>
+      <c r="E108">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>220</v>
       </c>
@@ -2495,10 +3160,16 @@
         <v>219</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D109" t="s">
+        <v>293</v>
+      </c>
+      <c r="E109">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -2506,10 +3177,16 @@
         <v>217</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D110" t="s">
+        <v>293</v>
+      </c>
+      <c r="E110">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>216</v>
       </c>
@@ -2517,10 +3194,16 @@
         <v>215</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D111" t="s">
+        <v>293</v>
+      </c>
+      <c r="E111">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>214</v>
       </c>
@@ -2528,10 +3211,16 @@
         <v>213</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D112" t="s">
+        <v>293</v>
+      </c>
+      <c r="E112">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>212</v>
       </c>
@@ -2539,10 +3228,16 @@
         <v>211</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D113" t="s">
+        <v>293</v>
+      </c>
+      <c r="E113">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>210</v>
       </c>
@@ -2550,10 +3245,16 @@
         <v>209</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D114" t="s">
+        <v>293</v>
+      </c>
+      <c r="E114">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>208</v>
       </c>
@@ -2561,10 +3262,16 @@
         <v>207</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D115" t="s">
+        <v>293</v>
+      </c>
+      <c r="E115">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>206</v>
       </c>
@@ -2572,10 +3279,16 @@
         <v>205</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D116" t="s">
+        <v>293</v>
+      </c>
+      <c r="E116">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>204</v>
       </c>
@@ -2583,10 +3296,16 @@
         <v>203</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D117" t="s">
+        <v>293</v>
+      </c>
+      <c r="E117">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>202</v>
       </c>
@@ -2594,10 +3313,16 @@
         <v>201</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D118" t="s">
+        <v>293</v>
+      </c>
+      <c r="E118">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>200</v>
       </c>
@@ -2605,10 +3330,16 @@
         <v>199</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D119" t="s">
+        <v>293</v>
+      </c>
+      <c r="E119">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>198</v>
       </c>
@@ -2616,10 +3347,16 @@
         <v>197</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D120" t="s">
+        <v>293</v>
+      </c>
+      <c r="E120">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>196</v>
       </c>
@@ -2627,10 +3364,16 @@
         <v>195</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D121" t="s">
+        <v>293</v>
+      </c>
+      <c r="E121">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>194</v>
       </c>
@@ -2638,10 +3381,16 @@
         <v>193</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D122" t="s">
+        <v>293</v>
+      </c>
+      <c r="E122">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>192</v>
       </c>
@@ -2649,10 +3398,16 @@
         <v>191</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D123" t="s">
+        <v>293</v>
+      </c>
+      <c r="E123">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>190</v>
       </c>
@@ -2660,10 +3415,16 @@
         <v>189</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D124" t="s">
+        <v>293</v>
+      </c>
+      <c r="E124">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>188</v>
       </c>
@@ -2671,10 +3432,16 @@
         <v>187</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D125" t="s">
+        <v>293</v>
+      </c>
+      <c r="E125">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>186</v>
       </c>
@@ -2682,10 +3449,16 @@
         <v>185</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D126" t="s">
+        <v>293</v>
+      </c>
+      <c r="E126">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>184</v>
       </c>
@@ -2693,10 +3466,16 @@
         <v>183</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D127" t="s">
+        <v>293</v>
+      </c>
+      <c r="E127">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>182</v>
       </c>
@@ -2704,10 +3483,16 @@
         <v>181</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D128" t="s">
+        <v>293</v>
+      </c>
+      <c r="E128">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>180</v>
       </c>
@@ -2715,10 +3500,16 @@
         <v>179</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D129" t="s">
+        <v>293</v>
+      </c>
+      <c r="E129">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>178</v>
       </c>
@@ -2726,10 +3517,16 @@
         <v>177</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D130" t="s">
+        <v>293</v>
+      </c>
+      <c r="E130">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>176</v>
       </c>
@@ -2737,10 +3534,16 @@
         <v>175</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D131" t="s">
+        <v>293</v>
+      </c>
+      <c r="E131">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>174</v>
       </c>
@@ -2748,10 +3551,16 @@
         <v>173</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D132" t="s">
+        <v>293</v>
+      </c>
+      <c r="E132">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>172</v>
       </c>
@@ -2759,10 +3568,16 @@
         <v>171</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D133" t="s">
+        <v>293</v>
+      </c>
+      <c r="E133">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>170</v>
       </c>
@@ -2770,10 +3585,16 @@
         <v>169</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D134" t="s">
+        <v>293</v>
+      </c>
+      <c r="E134">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>168</v>
       </c>
@@ -2781,10 +3602,16 @@
         <v>167</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D135" t="s">
+        <v>293</v>
+      </c>
+      <c r="E135">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>166</v>
       </c>
@@ -2792,10 +3619,16 @@
         <v>165</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D136" t="s">
+        <v>293</v>
+      </c>
+      <c r="E136">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>164</v>
       </c>
@@ -2803,10 +3636,16 @@
         <v>163</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D137" t="s">
+        <v>293</v>
+      </c>
+      <c r="E137">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>162</v>
       </c>
@@ -2814,10 +3653,16 @@
         <v>161</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D138" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>160</v>
       </c>
@@ -2825,10 +3670,16 @@
         <v>159</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D139" t="s">
+        <v>293</v>
+      </c>
+      <c r="E139">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>158</v>
       </c>
@@ -2836,10 +3687,16 @@
         <v>157</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D140" t="s">
+        <v>293</v>
+      </c>
+      <c r="E140">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
@@ -2847,10 +3704,16 @@
         <v>155</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D141" t="s">
+        <v>293</v>
+      </c>
+      <c r="E141">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
@@ -2858,10 +3721,16 @@
         <v>153</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D142" t="s">
+        <v>293</v>
+      </c>
+      <c r="E142">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>152</v>
       </c>
@@ -2869,21 +3738,33 @@
         <v>151</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D143" t="s">
+        <v>293</v>
+      </c>
+      <c r="E143">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D144" t="s">
+        <v>293</v>
+      </c>
+      <c r="E144">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -2891,10 +3772,16 @@
         <v>148</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D145" t="s">
+        <v>293</v>
+      </c>
+      <c r="E145">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -2902,10 +3789,16 @@
         <v>146</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="D146" t="s">
+        <v>293</v>
+      </c>
+      <c r="E146">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>236</v>
       </c>
@@ -2913,10 +3806,16 @@
         <v>286</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D147" t="s">
+        <v>295</v>
+      </c>
+      <c r="E147">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>234</v>
       </c>
@@ -2924,10 +3823,16 @@
         <v>285</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D148" t="s">
+        <v>295</v>
+      </c>
+      <c r="E148">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>232</v>
       </c>
@@ -2935,10 +3840,16 @@
         <v>284</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D149" t="s">
+        <v>295</v>
+      </c>
+      <c r="E149">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>283</v>
       </c>
@@ -2946,10 +3857,16 @@
         <v>282</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D150" t="s">
+        <v>295</v>
+      </c>
+      <c r="E150">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>228</v>
       </c>
@@ -2957,10 +3874,16 @@
         <v>281</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D151" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>226</v>
       </c>
@@ -2968,10 +3891,16 @@
         <v>280</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D152" t="s">
+        <v>295</v>
+      </c>
+      <c r="E152">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>224</v>
       </c>
@@ -2979,10 +3908,16 @@
         <v>279</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D153" t="s">
+        <v>295</v>
+      </c>
+      <c r="E153">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>222</v>
       </c>
@@ -2990,10 +3925,16 @@
         <v>278</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D154" t="s">
+        <v>295</v>
+      </c>
+      <c r="E154">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>220</v>
       </c>
@@ -3001,10 +3942,16 @@
         <v>277</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D155" t="s">
+        <v>295</v>
+      </c>
+      <c r="E155">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>218</v>
       </c>
@@ -3012,10 +3959,16 @@
         <v>276</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D156" t="s">
+        <v>295</v>
+      </c>
+      <c r="E156">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>216</v>
       </c>
@@ -3023,10 +3976,16 @@
         <v>275</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D157" t="s">
+        <v>295</v>
+      </c>
+      <c r="E157">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>214</v>
       </c>
@@ -3034,10 +3993,16 @@
         <v>274</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D158" t="s">
+        <v>295</v>
+      </c>
+      <c r="E158">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>212</v>
       </c>
@@ -3045,10 +4010,16 @@
         <v>273</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D159" t="s">
+        <v>295</v>
+      </c>
+      <c r="E159">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>210</v>
       </c>
@@ -3056,10 +4027,16 @@
         <v>272</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D160" t="s">
+        <v>295</v>
+      </c>
+      <c r="E160">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>208</v>
       </c>
@@ -3067,10 +4044,16 @@
         <v>271</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D161" t="s">
+        <v>295</v>
+      </c>
+      <c r="E161">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>206</v>
       </c>
@@ -3078,10 +4061,16 @@
         <v>270</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D162" t="s">
+        <v>295</v>
+      </c>
+      <c r="E162">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>204</v>
       </c>
@@ -3089,10 +4078,16 @@
         <v>269</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D163" t="s">
+        <v>295</v>
+      </c>
+      <c r="E163">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>202</v>
       </c>
@@ -3100,10 +4095,16 @@
         <v>268</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D164" t="s">
+        <v>295</v>
+      </c>
+      <c r="E164">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>200</v>
       </c>
@@ -3111,10 +4112,16 @@
         <v>267</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D165" t="s">
+        <v>295</v>
+      </c>
+      <c r="E165">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>198</v>
       </c>
@@ -3122,10 +4129,16 @@
         <v>266</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D166" t="s">
+        <v>295</v>
+      </c>
+      <c r="E166">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>196</v>
       </c>
@@ -3133,10 +4146,16 @@
         <v>265</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D167" t="s">
+        <v>295</v>
+      </c>
+      <c r="E167">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>194</v>
       </c>
@@ -3144,10 +4163,16 @@
         <v>264</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D168" t="s">
+        <v>295</v>
+      </c>
+      <c r="E168">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>263</v>
       </c>
@@ -3155,10 +4180,16 @@
         <v>262</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D169" t="s">
+        <v>295</v>
+      </c>
+      <c r="E169">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>261</v>
       </c>
@@ -3166,10 +4197,16 @@
         <v>260</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D170" t="s">
+        <v>295</v>
+      </c>
+      <c r="E170">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>259</v>
       </c>
@@ -3177,10 +4214,16 @@
         <v>258</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D171" t="s">
+        <v>295</v>
+      </c>
+      <c r="E171">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>186</v>
       </c>
@@ -3188,10 +4231,16 @@
         <v>257</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D172" t="s">
+        <v>295</v>
+      </c>
+      <c r="E172">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>184</v>
       </c>
@@ -3199,10 +4248,16 @@
         <v>256</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D173" t="s">
+        <v>295</v>
+      </c>
+      <c r="E173">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>182</v>
       </c>
@@ -3210,10 +4265,16 @@
         <v>255</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D174" t="s">
+        <v>295</v>
+      </c>
+      <c r="E174">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>180</v>
       </c>
@@ -3221,10 +4282,16 @@
         <v>254</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D175" t="s">
+        <v>295</v>
+      </c>
+      <c r="E175">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -3232,10 +4299,16 @@
         <v>253</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D176" t="s">
+        <v>295</v>
+      </c>
+      <c r="E176">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -3243,10 +4316,16 @@
         <v>252</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D177" t="s">
+        <v>295</v>
+      </c>
+      <c r="E177">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>174</v>
       </c>
@@ -3254,10 +4333,16 @@
         <v>251</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D178" t="s">
+        <v>295</v>
+      </c>
+      <c r="E178">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>172</v>
       </c>
@@ -3265,10 +4350,16 @@
         <v>250</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D179" t="s">
+        <v>295</v>
+      </c>
+      <c r="E179">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>170</v>
       </c>
@@ -3276,10 +4367,16 @@
         <v>249</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D180" t="s">
+        <v>295</v>
+      </c>
+      <c r="E180">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>168</v>
       </c>
@@ -3287,10 +4384,16 @@
         <v>248</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D181" t="s">
+        <v>295</v>
+      </c>
+      <c r="E181">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>166</v>
       </c>
@@ -3298,10 +4401,16 @@
         <v>247</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D182" t="s">
+        <v>295</v>
+      </c>
+      <c r="E182">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>164</v>
       </c>
@@ -3309,10 +4418,16 @@
         <v>246</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D183" t="s">
+        <v>295</v>
+      </c>
+      <c r="E183">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>162</v>
       </c>
@@ -3320,10 +4435,16 @@
         <v>245</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D184" t="s">
+        <v>295</v>
+      </c>
+      <c r="E184">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>160</v>
       </c>
@@ -3331,10 +4452,16 @@
         <v>244</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D185" t="s">
+        <v>295</v>
+      </c>
+      <c r="E185">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>158</v>
       </c>
@@ -3342,10 +4469,16 @@
         <v>243</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D186" t="s">
+        <v>295</v>
+      </c>
+      <c r="E186">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>156</v>
       </c>
@@ -3353,10 +4486,16 @@
         <v>242</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D187" t="s">
+        <v>295</v>
+      </c>
+      <c r="E187">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>154</v>
       </c>
@@ -3364,10 +4503,16 @@
         <v>241</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D188" t="s">
+        <v>295</v>
+      </c>
+      <c r="E188">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>152</v>
       </c>
@@ -3375,21 +4520,33 @@
         <v>240</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D189" t="s">
+        <v>295</v>
+      </c>
+      <c r="E189">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D190" t="s">
+        <v>295</v>
+      </c>
+      <c r="E190">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>149</v>
       </c>
@@ -3397,10 +4554,16 @@
         <v>238</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D191" t="s">
+        <v>295</v>
+      </c>
+      <c r="E191">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>147</v>
       </c>
@@ -3408,10 +4571,17 @@
         <v>237</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
+      </c>
+      <c r="D192" t="s">
+        <v>295</v>
+      </c>
+      <c r="E192">
+        <v>945</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/investment dictionary.xlsx
+++ b/investment dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Documents/MIT Project Development/Employ America - MIT Data Viewer/Single Sheet Layout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADD68E-1F6B-B747-A7E3-0BA2A6F9F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40654E4C-B1A1-0A4B-9111-FD465FB8CE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="820" windowWidth="42280" windowHeight="34660" xr2:uid="{0F44D3E6-F285-C344-9A66-5814EE0BA308}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="296">
   <si>
     <t>A756RC</t>
   </si>
@@ -781,9 +781,6 @@
     <t>C280RX</t>
   </si>
   <si>
-    <t xml:space="preserve">    Autos\2\</t>
-  </si>
-  <si>
     <t>W179RX</t>
   </si>
   <si>
@@ -880,9 +877,6 @@
     <t>Structures Investment</t>
   </si>
   <si>
-    <t>2017 Dollars</t>
-  </si>
-  <si>
     <t>Real Structures Investment</t>
   </si>
   <si>
@@ -926,6 +920,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Autos</t>
+  </si>
+  <si>
+    <t>Dollars (2017)</t>
   </si>
 </sst>
 </file>
@@ -1311,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359D7C5-C337-8B40-B8BA-5824DF6351FA}">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147:D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0.3"/>
@@ -1324,19 +1321,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>274</v>
       </c>
-      <c r="C1" t="s">
-        <v>275</v>
-      </c>
       <c r="D1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1347,10 +1344,10 @@
         <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2">
         <v>9801</v>
@@ -1364,10 +1361,10 @@
         <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3">
         <v>9802</v>
@@ -1381,10 +1378,10 @@
         <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4">
         <v>9803</v>
@@ -1392,16 +1389,16 @@
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5">
         <v>9804</v>
@@ -1415,10 +1412,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6">
         <v>9805</v>
@@ -1432,10 +1429,10 @@
         <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7">
         <v>9806</v>
@@ -1449,10 +1446,10 @@
         <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8">
         <v>9807</v>
@@ -1466,10 +1463,10 @@
         <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9">
         <v>9808</v>
@@ -1483,10 +1480,10 @@
         <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10">
         <v>9809</v>
@@ -1500,10 +1497,10 @@
         <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E11">
         <v>9810</v>
@@ -1517,10 +1514,10 @@
         <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12">
         <v>9811</v>
@@ -1534,10 +1531,10 @@
         <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13">
         <v>9812</v>
@@ -1545,16 +1542,16 @@
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14">
         <v>9813</v>
@@ -1568,10 +1565,10 @@
         <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15">
         <v>9814</v>
@@ -1585,10 +1582,10 @@
         <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E16">
         <v>9815</v>
@@ -1602,10 +1599,10 @@
         <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E17">
         <v>9816</v>
@@ -1619,10 +1616,10 @@
         <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18">
         <v>9817</v>
@@ -1630,16 +1627,16 @@
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19">
         <v>9818</v>
@@ -1653,10 +1650,10 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E20">
         <v>9819</v>
@@ -1664,16 +1661,16 @@
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21">
         <v>9820</v>
@@ -1687,10 +1684,10 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22">
         <v>9821</v>
@@ -1704,10 +1701,10 @@
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23">
         <v>9822</v>
@@ -1721,10 +1718,10 @@
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24">
         <v>9823</v>
@@ -1738,10 +1735,10 @@
         <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25">
         <v>9824</v>
@@ -1755,10 +1752,10 @@
         <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E26">
         <v>9825</v>
@@ -1772,10 +1769,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27">
         <v>9826</v>
@@ -1789,10 +1786,10 @@
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28">
         <v>9827</v>
@@ -1806,10 +1803,10 @@
         <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E29">
         <v>9828</v>
@@ -1823,10 +1820,10 @@
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E30">
         <v>9829</v>
@@ -1840,10 +1837,10 @@
         <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E31">
         <v>9830</v>
@@ -1857,10 +1854,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E32">
         <v>9831</v>
@@ -1868,16 +1865,16 @@
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33">
         <v>9832</v>
@@ -1891,10 +1888,10 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34">
         <v>9833</v>
@@ -1902,16 +1899,16 @@
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E35">
         <v>9834</v>
@@ -1925,10 +1922,10 @@
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36">
         <v>9835</v>
@@ -1942,10 +1939,10 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E37">
         <v>9836</v>
@@ -1959,10 +1956,10 @@
         <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E38">
         <v>9837</v>
@@ -1976,10 +1973,10 @@
         <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E39">
         <v>9838</v>
@@ -1993,10 +1990,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E40">
         <v>9839</v>
@@ -2010,10 +2007,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E41">
         <v>9840</v>
@@ -2027,10 +2024,10 @@
         <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E42">
         <v>9841</v>
@@ -2044,10 +2041,10 @@
         <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43">
         <v>9842</v>
@@ -2061,10 +2058,10 @@
         <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44">
         <v>9843</v>
@@ -2078,10 +2075,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E45">
         <v>9844</v>
@@ -2089,16 +2086,16 @@
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E46">
         <v>9845</v>
@@ -2112,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E47">
         <v>9846</v>
@@ -2129,10 +2126,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E48">
         <v>9847</v>
@@ -2140,16 +2137,16 @@
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E49">
         <v>9848</v>
@@ -2157,16 +2154,16 @@
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E50">
         <v>9849</v>
@@ -2180,10 +2177,10 @@
         <v>137</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D51" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E51">
         <v>9801</v>
@@ -2197,10 +2194,10 @@
         <v>136</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E52">
         <v>9802</v>
@@ -2214,10 +2211,10 @@
         <v>135</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D53" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E53">
         <v>9803</v>
@@ -2225,16 +2222,16 @@
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E54">
         <v>9804</v>
@@ -2248,10 +2245,10 @@
         <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E55">
         <v>9805</v>
@@ -2265,10 +2262,10 @@
         <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D56" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E56">
         <v>9806</v>
@@ -2282,10 +2279,10 @@
         <v>131</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D57" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E57">
         <v>9807</v>
@@ -2299,10 +2296,10 @@
         <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D58" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E58">
         <v>9808</v>
@@ -2316,10 +2313,10 @@
         <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D59" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E59">
         <v>9809</v>
@@ -2333,10 +2330,10 @@
         <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E60">
         <v>9810</v>
@@ -2350,10 +2347,10 @@
         <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E61">
         <v>9811</v>
@@ -2367,10 +2364,10 @@
         <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D62" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E62">
         <v>9812</v>
@@ -2378,16 +2375,16 @@
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D63" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E63">
         <v>9813</v>
@@ -2401,10 +2398,10 @@
         <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D64" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E64">
         <v>9814</v>
@@ -2418,10 +2415,10 @@
         <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E65">
         <v>9815</v>
@@ -2435,10 +2432,10 @@
         <v>122</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E66">
         <v>9816</v>
@@ -2452,10 +2449,10 @@
         <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D67" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E67">
         <v>9817</v>
@@ -2463,16 +2460,16 @@
     </row>
     <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D68" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E68">
         <v>9818</v>
@@ -2486,10 +2483,10 @@
         <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E69">
         <v>9819</v>
@@ -2497,16 +2494,16 @@
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D70" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E70">
         <v>9820</v>
@@ -2520,10 +2517,10 @@
         <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E71">
         <v>9821</v>
@@ -2537,10 +2534,10 @@
         <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E72">
         <v>9822</v>
@@ -2554,10 +2551,10 @@
         <v>115</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D73" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E73">
         <v>9823</v>
@@ -2571,10 +2568,10 @@
         <v>114</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E74">
         <v>9824</v>
@@ -2588,10 +2585,10 @@
         <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E75">
         <v>9825</v>
@@ -2605,10 +2602,10 @@
         <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E76">
         <v>9826</v>
@@ -2622,10 +2619,10 @@
         <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E77">
         <v>9827</v>
@@ -2639,10 +2636,10 @@
         <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E78">
         <v>9828</v>
@@ -2656,10 +2653,10 @@
         <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E79">
         <v>9829</v>
@@ -2673,10 +2670,10 @@
         <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D80" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E80">
         <v>9830</v>
@@ -2690,10 +2687,10 @@
         <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E81">
         <v>9831</v>
@@ -2701,16 +2698,16 @@
     </row>
     <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D82" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E82">
         <v>9832</v>
@@ -2724,10 +2721,10 @@
         <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E83">
         <v>9833</v>
@@ -2735,16 +2732,16 @@
     </row>
     <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E84">
         <v>9834</v>
@@ -2758,10 +2755,10 @@
         <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D85" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E85">
         <v>9835</v>
@@ -2775,10 +2772,10 @@
         <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D86" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E86">
         <v>9836</v>
@@ -2792,10 +2789,10 @@
         <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E87">
         <v>9837</v>
@@ -2809,10 +2806,10 @@
         <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E88">
         <v>9838</v>
@@ -2826,10 +2823,10 @@
         <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E89">
         <v>9839</v>
@@ -2843,10 +2840,10 @@
         <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E90">
         <v>9840</v>
@@ -2860,10 +2857,10 @@
         <v>97</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D91" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E91">
         <v>9841</v>
@@ -2877,10 +2874,10 @@
         <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E92">
         <v>9842</v>
@@ -2894,10 +2891,10 @@
         <v>95</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E93">
         <v>9843</v>
@@ -2911,10 +2908,10 @@
         <v>94</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D94" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E94">
         <v>9844</v>
@@ -2922,16 +2919,16 @@
     </row>
     <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E95">
         <v>9845</v>
@@ -2945,10 +2942,10 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D96" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E96">
         <v>9846</v>
@@ -2962,10 +2959,10 @@
         <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E97">
         <v>9847</v>
@@ -2979,10 +2976,10 @@
         <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E98">
         <v>9848</v>
@@ -2990,16 +2987,16 @@
     </row>
     <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E99">
         <v>9849</v>
@@ -3007,16 +3004,16 @@
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E100">
         <v>9850</v>
@@ -3030,10 +3027,10 @@
         <v>224</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E101">
         <v>9901</v>
@@ -3047,10 +3044,10 @@
         <v>222</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E102">
         <v>9902</v>
@@ -3064,10 +3061,10 @@
         <v>220</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E103">
         <v>9903</v>
@@ -3081,10 +3078,10 @@
         <v>218</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E104">
         <v>9904</v>
@@ -3098,10 +3095,10 @@
         <v>216</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E105">
         <v>9905</v>
@@ -3115,10 +3112,10 @@
         <v>214</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E106">
         <v>9906</v>
@@ -3132,10 +3129,10 @@
         <v>212</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D107" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E107">
         <v>9907</v>
@@ -3149,10 +3146,10 @@
         <v>210</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E108">
         <v>9908</v>
@@ -3166,10 +3163,10 @@
         <v>208</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D109" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E109">
         <v>9909</v>
@@ -3183,10 +3180,10 @@
         <v>206</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E110">
         <v>9910</v>
@@ -3200,10 +3197,10 @@
         <v>204</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E111">
         <v>9911</v>
@@ -3217,10 +3214,10 @@
         <v>202</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E112">
         <v>9912</v>
@@ -3234,10 +3231,10 @@
         <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E113">
         <v>9913</v>
@@ -3251,10 +3248,10 @@
         <v>198</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E114">
         <v>9914</v>
@@ -3268,10 +3265,10 @@
         <v>196</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E115">
         <v>9915</v>
@@ -3285,10 +3282,10 @@
         <v>194</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E116">
         <v>9916</v>
@@ -3302,10 +3299,10 @@
         <v>192</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E117">
         <v>9917</v>
@@ -3319,10 +3316,10 @@
         <v>190</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D118" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E118">
         <v>9918</v>
@@ -3336,10 +3333,10 @@
         <v>188</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E119">
         <v>9919</v>
@@ -3353,10 +3350,10 @@
         <v>186</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E120">
         <v>9920</v>
@@ -3370,10 +3367,10 @@
         <v>184</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E121">
         <v>9921</v>
@@ -3387,10 +3384,10 @@
         <v>182</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E122">
         <v>9922</v>
@@ -3398,16 +3395,16 @@
     </row>
     <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E123">
         <v>9923</v>
@@ -3415,16 +3412,16 @@
     </row>
     <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E124">
         <v>9924</v>
@@ -3432,16 +3429,16 @@
     </row>
     <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E125">
         <v>9925</v>
@@ -3455,10 +3452,10 @@
         <v>177</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D126" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E126">
         <v>9926</v>
@@ -3472,10 +3469,10 @@
         <v>175</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D127" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E127">
         <v>9927</v>
@@ -3489,10 +3486,10 @@
         <v>173</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D128" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E128">
         <v>9928</v>
@@ -3506,10 +3503,10 @@
         <v>171</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D129" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E129">
         <v>9929</v>
@@ -3523,10 +3520,10 @@
         <v>169</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E130">
         <v>9930</v>
@@ -3540,10 +3537,10 @@
         <v>167</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E131">
         <v>9931</v>
@@ -3557,10 +3554,10 @@
         <v>165</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D132" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E132">
         <v>9932</v>
@@ -3574,10 +3571,10 @@
         <v>163</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D133" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E133">
         <v>9933</v>
@@ -3591,10 +3588,10 @@
         <v>161</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D134" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E134">
         <v>9934</v>
@@ -3608,10 +3605,10 @@
         <v>159</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D135" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E135">
         <v>9935</v>
@@ -3625,10 +3622,10 @@
         <v>157</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D136" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E136">
         <v>9936</v>
@@ -3642,10 +3639,10 @@
         <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D137" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E137">
         <v>9937</v>
@@ -3659,10 +3656,10 @@
         <v>153</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E138">
         <v>9938</v>
@@ -3676,10 +3673,10 @@
         <v>151</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D139" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E139">
         <v>9939</v>
@@ -3693,10 +3690,10 @@
         <v>149</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E140">
         <v>9940</v>
@@ -3710,10 +3707,10 @@
         <v>147</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E141">
         <v>9941</v>
@@ -3727,10 +3724,10 @@
         <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E142">
         <v>9942</v>
@@ -3744,10 +3741,10 @@
         <v>143</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E143">
         <v>9943</v>
@@ -3755,16 +3752,16 @@
     </row>
     <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E144">
         <v>9944</v>
@@ -3778,10 +3775,10 @@
         <v>140</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D145" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E145">
         <v>9945</v>
@@ -3795,10 +3792,10 @@
         <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D146" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E146">
         <v>9946</v>
@@ -3809,13 +3806,13 @@
         <v>225</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D147" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E147">
         <v>9901</v>
@@ -3826,13 +3823,13 @@
         <v>223</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D148" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E148">
         <v>9902</v>
@@ -3843,13 +3840,13 @@
         <v>221</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D149" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E149">
         <v>9903</v>
@@ -3860,13 +3857,13 @@
         <v>219</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D150" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E150">
         <v>9904</v>
@@ -3877,13 +3874,13 @@
         <v>217</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D151" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E151">
         <v>9905</v>
@@ -3894,13 +3891,13 @@
         <v>215</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D152" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E152">
         <v>9906</v>
@@ -3911,13 +3908,13 @@
         <v>213</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D153" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E153">
         <v>9907</v>
@@ -3928,13 +3925,13 @@
         <v>211</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D154" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E154">
         <v>9908</v>
@@ -3945,13 +3942,13 @@
         <v>209</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D155" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E155">
         <v>9909</v>
@@ -3962,13 +3959,13 @@
         <v>207</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D156" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E156">
         <v>9910</v>
@@ -3979,13 +3976,13 @@
         <v>205</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D157" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E157">
         <v>9911</v>
@@ -3996,13 +3993,13 @@
         <v>203</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D158" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E158">
         <v>9912</v>
@@ -4013,13 +4010,13 @@
         <v>201</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D159" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E159">
         <v>9913</v>
@@ -4030,13 +4027,13 @@
         <v>199</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D160" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E160">
         <v>9914</v>
@@ -4047,13 +4044,13 @@
         <v>197</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D161" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E161">
         <v>9915</v>
@@ -4064,13 +4061,13 @@
         <v>195</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D162" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E162">
         <v>9916</v>
@@ -4081,13 +4078,13 @@
         <v>193</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D163" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E163">
         <v>9917</v>
@@ -4098,13 +4095,13 @@
         <v>191</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D164" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E164">
         <v>9918</v>
@@ -4115,13 +4112,13 @@
         <v>189</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D165" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E165">
         <v>9919</v>
@@ -4132,13 +4129,13 @@
         <v>187</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D166" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E166">
         <v>9920</v>
@@ -4149,13 +4146,13 @@
         <v>185</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D167" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E167">
         <v>9921</v>
@@ -4166,13 +4163,13 @@
         <v>183</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D168" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E168">
         <v>9922</v>
@@ -4180,16 +4177,16 @@
     </row>
     <row r="169" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D169" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E169">
         <v>9923</v>
@@ -4197,16 +4194,16 @@
     </row>
     <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D170" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E170">
         <v>9924</v>
@@ -4214,16 +4211,16 @@
     </row>
     <row r="171" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D171" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E171">
         <v>9925</v>
@@ -4237,10 +4234,10 @@
         <v>246</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D172" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E172">
         <v>9926</v>
@@ -4254,10 +4251,10 @@
         <v>245</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D173" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E173">
         <v>9927</v>
@@ -4271,10 +4268,10 @@
         <v>244</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D174" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E174">
         <v>9928</v>
@@ -4288,10 +4285,10 @@
         <v>243</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D175" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E175">
         <v>9929</v>
@@ -4305,10 +4302,10 @@
         <v>242</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D176" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E176">
         <v>9930</v>
@@ -4322,10 +4319,10 @@
         <v>241</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D177" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E177">
         <v>9931</v>
@@ -4339,10 +4336,10 @@
         <v>240</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D178" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E178">
         <v>9932</v>
@@ -4356,10 +4353,10 @@
         <v>239</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D179" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E179">
         <v>9933</v>
@@ -4373,10 +4370,10 @@
         <v>238</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D180" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E180">
         <v>9934</v>
@@ -4390,10 +4387,10 @@
         <v>237</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D181" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E181">
         <v>9935</v>
@@ -4407,10 +4404,10 @@
         <v>236</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D182" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E182">
         <v>9936</v>
@@ -4424,10 +4421,10 @@
         <v>235</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D183" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E183">
         <v>9937</v>
@@ -4441,10 +4438,10 @@
         <v>234</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D184" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E184">
         <v>9938</v>
@@ -4458,10 +4455,10 @@
         <v>233</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D185" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E185">
         <v>9939</v>
@@ -4475,10 +4472,10 @@
         <v>232</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D186" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E186">
         <v>9940</v>
@@ -4492,10 +4489,10 @@
         <v>231</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D187" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E187">
         <v>9941</v>
@@ -4509,10 +4506,10 @@
         <v>230</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D188" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E188">
         <v>9942</v>
@@ -4526,10 +4523,10 @@
         <v>229</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D189" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E189">
         <v>9943</v>
@@ -4537,16 +4534,16 @@
     </row>
     <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D190" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E190">
         <v>9944</v>
@@ -4560,10 +4557,10 @@
         <v>227</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D191" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E191">
         <v>9945</v>
@@ -4577,10 +4574,10 @@
         <v>226</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D192" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E192">
         <v>9946</v>

--- a/investment dictionary.xlsx
+++ b/investment dictionary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Documents/MIT Project Development/Employ America - MIT Data Viewer/Single Sheet Layout/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40654E4C-B1A1-0A4B-9111-FD465FB8CE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CFDF5-AC22-EE4D-89DC-4F209FA67287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="820" windowWidth="42280" windowHeight="34660" xr2:uid="{0F44D3E6-F285-C344-9A66-5814EE0BA308}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="487">
   <si>
     <t>A756RC</t>
   </si>
@@ -923,6 +923,579 @@
   </si>
   <si>
     <t>Dollars (2017)</t>
+  </si>
+  <si>
+    <t>99100000</t>
+  </si>
+  <si>
+    <t>99110000</t>
+  </si>
+  <si>
+    <t>99111000</t>
+  </si>
+  <si>
+    <t>99111100</t>
+  </si>
+  <si>
+    <t>99111200</t>
+  </si>
+  <si>
+    <t>99111210</t>
+  </si>
+  <si>
+    <t>99111211</t>
+  </si>
+  <si>
+    <t>99111212</t>
+  </si>
+  <si>
+    <t>99111220</t>
+  </si>
+  <si>
+    <t>99111300</t>
+  </si>
+  <si>
+    <t>99111400</t>
+  </si>
+  <si>
+    <t>99111500</t>
+  </si>
+  <si>
+    <t>99111600</t>
+  </si>
+  <si>
+    <t>99112000</t>
+  </si>
+  <si>
+    <t>99113000</t>
+  </si>
+  <si>
+    <t>99113100</t>
+  </si>
+  <si>
+    <t>99113110</t>
+  </si>
+  <si>
+    <t>99113111</t>
+  </si>
+  <si>
+    <t>99113112</t>
+  </si>
+  <si>
+    <t>99113120</t>
+  </si>
+  <si>
+    <t>99113200</t>
+  </si>
+  <si>
+    <t>99114000</t>
+  </si>
+  <si>
+    <t>99114100</t>
+  </si>
+  <si>
+    <t>99114200</t>
+  </si>
+  <si>
+    <t>99115000</t>
+  </si>
+  <si>
+    <t>99115100</t>
+  </si>
+  <si>
+    <t>99115200</t>
+  </si>
+  <si>
+    <t>99115300</t>
+  </si>
+  <si>
+    <t>99115400</t>
+  </si>
+  <si>
+    <t>99115600</t>
+  </si>
+  <si>
+    <t>99115610</t>
+  </si>
+  <si>
+    <t>99115620</t>
+  </si>
+  <si>
+    <t>99115700</t>
+  </si>
+  <si>
+    <t>99115800</t>
+  </si>
+  <si>
+    <t>99115900</t>
+  </si>
+  <si>
+    <t>99115999</t>
+  </si>
+  <si>
+    <t>99116000</t>
+  </si>
+  <si>
+    <t>99116100</t>
+  </si>
+  <si>
+    <t>99116110</t>
+  </si>
+  <si>
+    <t>99116120</t>
+  </si>
+  <si>
+    <t>99116200</t>
+  </si>
+  <si>
+    <t>99116210</t>
+  </si>
+  <si>
+    <t>99116220</t>
+  </si>
+  <si>
+    <t>99116230</t>
+  </si>
+  <si>
+    <t>99116240</t>
+  </si>
+  <si>
+    <t>99116250</t>
+  </si>
+  <si>
+    <t>99116300</t>
+  </si>
+  <si>
+    <t>99116310</t>
+  </si>
+  <si>
+    <t>99116320</t>
+  </si>
+  <si>
+    <t>99200000</t>
+  </si>
+  <si>
+    <t>99210000</t>
+  </si>
+  <si>
+    <t>99211000</t>
+  </si>
+  <si>
+    <t>99211100</t>
+  </si>
+  <si>
+    <t>99211200</t>
+  </si>
+  <si>
+    <t>99211210</t>
+  </si>
+  <si>
+    <t>99211211</t>
+  </si>
+  <si>
+    <t>99211212</t>
+  </si>
+  <si>
+    <t>99211220</t>
+  </si>
+  <si>
+    <t>99211300</t>
+  </si>
+  <si>
+    <t>99211400</t>
+  </si>
+  <si>
+    <t>99211500</t>
+  </si>
+  <si>
+    <t>99211600</t>
+  </si>
+  <si>
+    <t>99212000</t>
+  </si>
+  <si>
+    <t>99213000</t>
+  </si>
+  <si>
+    <t>99213100</t>
+  </si>
+  <si>
+    <t>99213110</t>
+  </si>
+  <si>
+    <t>99213111</t>
+  </si>
+  <si>
+    <t>99213112</t>
+  </si>
+  <si>
+    <t>99213120</t>
+  </si>
+  <si>
+    <t>99213200</t>
+  </si>
+  <si>
+    <t>99214000</t>
+  </si>
+  <si>
+    <t>99214100</t>
+  </si>
+  <si>
+    <t>99214200</t>
+  </si>
+  <si>
+    <t>99215000</t>
+  </si>
+  <si>
+    <t>99215100</t>
+  </si>
+  <si>
+    <t>99215200</t>
+  </si>
+  <si>
+    <t>99215300</t>
+  </si>
+  <si>
+    <t>99215400</t>
+  </si>
+  <si>
+    <t>99215500</t>
+  </si>
+  <si>
+    <t>99215510</t>
+  </si>
+  <si>
+    <t>99215520</t>
+  </si>
+  <si>
+    <t>99215600</t>
+  </si>
+  <si>
+    <t>99215700</t>
+  </si>
+  <si>
+    <t>99215800</t>
+  </si>
+  <si>
+    <t>99215900</t>
+  </si>
+  <si>
+    <t>99220000</t>
+  </si>
+  <si>
+    <t>99221000</t>
+  </si>
+  <si>
+    <t>99221100</t>
+  </si>
+  <si>
+    <t>99221200</t>
+  </si>
+  <si>
+    <t>99222000</t>
+  </si>
+  <si>
+    <t>99222100</t>
+  </si>
+  <si>
+    <t>99222200</t>
+  </si>
+  <si>
+    <t>99222300</t>
+  </si>
+  <si>
+    <t>99222400</t>
+  </si>
+  <si>
+    <t>99222500</t>
+  </si>
+  <si>
+    <t>99230000</t>
+  </si>
+  <si>
+    <t>99231000</t>
+  </si>
+  <si>
+    <t>99231100</t>
+  </si>
+  <si>
+    <t>99231200</t>
+  </si>
+  <si>
+    <t>99300000</t>
+  </si>
+  <si>
+    <t>99310000</t>
+  </si>
+  <si>
+    <t>99311000</t>
+  </si>
+  <si>
+    <t>99311100</t>
+  </si>
+  <si>
+    <t>99311200</t>
+  </si>
+  <si>
+    <t>99311300</t>
+  </si>
+  <si>
+    <t>99311310</t>
+  </si>
+  <si>
+    <t>99311320</t>
+  </si>
+  <si>
+    <t>99311400</t>
+  </si>
+  <si>
+    <t>99311500</t>
+  </si>
+  <si>
+    <t>99311600</t>
+  </si>
+  <si>
+    <t>99312000</t>
+  </si>
+  <si>
+    <t>99312100</t>
+  </si>
+  <si>
+    <t>99312200</t>
+  </si>
+  <si>
+    <t>99312210</t>
+  </si>
+  <si>
+    <t>99312220</t>
+  </si>
+  <si>
+    <t>99312300</t>
+  </si>
+  <si>
+    <t>99312400</t>
+  </si>
+  <si>
+    <t>99312500</t>
+  </si>
+  <si>
+    <t>99312600</t>
+  </si>
+  <si>
+    <t>99313000</t>
+  </si>
+  <si>
+    <t>99313100</t>
+  </si>
+  <si>
+    <t>99313110</t>
+  </si>
+  <si>
+    <t>99313120</t>
+  </si>
+  <si>
+    <t>99313200</t>
+  </si>
+  <si>
+    <t>99313300</t>
+  </si>
+  <si>
+    <t>99313400</t>
+  </si>
+  <si>
+    <t>99313500</t>
+  </si>
+  <si>
+    <t>99314000</t>
+  </si>
+  <si>
+    <t>99314100</t>
+  </si>
+  <si>
+    <t>99314110</t>
+  </si>
+  <si>
+    <t>99314120</t>
+  </si>
+  <si>
+    <t>99314200</t>
+  </si>
+  <si>
+    <t>99314210</t>
+  </si>
+  <si>
+    <t>99314220</t>
+  </si>
+  <si>
+    <t>99314300</t>
+  </si>
+  <si>
+    <t>99314310</t>
+  </si>
+  <si>
+    <t>99314320</t>
+  </si>
+  <si>
+    <t>99314400</t>
+  </si>
+  <si>
+    <t>99314500</t>
+  </si>
+  <si>
+    <t>99314600</t>
+  </si>
+  <si>
+    <t>99314610</t>
+  </si>
+  <si>
+    <t>99314620</t>
+  </si>
+  <si>
+    <t>99314700</t>
+  </si>
+  <si>
+    <t>99315000</t>
+  </si>
+  <si>
+    <t>99320000</t>
+  </si>
+  <si>
+    <t>99400000</t>
+  </si>
+  <si>
+    <t>99410000</t>
+  </si>
+  <si>
+    <t>99411000</t>
+  </si>
+  <si>
+    <t>99411100</t>
+  </si>
+  <si>
+    <t>99411200</t>
+  </si>
+  <si>
+    <t>99411300</t>
+  </si>
+  <si>
+    <t>99411310</t>
+  </si>
+  <si>
+    <t>99411320</t>
+  </si>
+  <si>
+    <t>99411400</t>
+  </si>
+  <si>
+    <t>99411500</t>
+  </si>
+  <si>
+    <t>99411600</t>
+  </si>
+  <si>
+    <t>99412000</t>
+  </si>
+  <si>
+    <t>99412100</t>
+  </si>
+  <si>
+    <t>99412200</t>
+  </si>
+  <si>
+    <t>99412210</t>
+  </si>
+  <si>
+    <t>99412220</t>
+  </si>
+  <si>
+    <t>99412300</t>
+  </si>
+  <si>
+    <t>99412400</t>
+  </si>
+  <si>
+    <t>99412500</t>
+  </si>
+  <si>
+    <t>99412600</t>
+  </si>
+  <si>
+    <t>99413000</t>
+  </si>
+  <si>
+    <t>99413100</t>
+  </si>
+  <si>
+    <t>99413110</t>
+  </si>
+  <si>
+    <t>99413120</t>
+  </si>
+  <si>
+    <t>99413200</t>
+  </si>
+  <si>
+    <t>99413300</t>
+  </si>
+  <si>
+    <t>99413400</t>
+  </si>
+  <si>
+    <t>99413500</t>
+  </si>
+  <si>
+    <t>99414000</t>
+  </si>
+  <si>
+    <t>99414100</t>
+  </si>
+  <si>
+    <t>99414110</t>
+  </si>
+  <si>
+    <t>99414120</t>
+  </si>
+  <si>
+    <t>99414200</t>
+  </si>
+  <si>
+    <t>99414210</t>
+  </si>
+  <si>
+    <t>99414220</t>
+  </si>
+  <si>
+    <t>99414300</t>
+  </si>
+  <si>
+    <t>99414310</t>
+  </si>
+  <si>
+    <t>99414320</t>
+  </si>
+  <si>
+    <t>99414400</t>
+  </si>
+  <si>
+    <t>99414500</t>
+  </si>
+  <si>
+    <t>99414600</t>
+  </si>
+  <si>
+    <t>99414610</t>
+  </si>
+  <si>
+    <t>99414620</t>
+  </si>
+  <si>
+    <t>99414700</t>
+  </si>
+  <si>
+    <t>99415000</t>
+  </si>
+  <si>
+    <t>99420000</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359D7C5-C337-8B40-B8BA-5824DF6351FA}">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147:D192"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0.3"/>
@@ -1349,8 +1922,8 @@
       <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="E2">
-        <v>9801</v>
+      <c r="E2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1366,8 +1939,8 @@
       <c r="D3" t="s">
         <v>278</v>
       </c>
-      <c r="E3">
-        <v>9802</v>
+      <c r="E3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1383,8 +1956,8 @@
       <c r="D4" t="s">
         <v>278</v>
       </c>
-      <c r="E4">
-        <v>9803</v>
+      <c r="E4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1400,8 +1973,8 @@
       <c r="D5" t="s">
         <v>278</v>
       </c>
-      <c r="E5">
-        <v>9804</v>
+      <c r="E5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1417,8 +1990,8 @@
       <c r="D6" t="s">
         <v>278</v>
       </c>
-      <c r="E6">
-        <v>9805</v>
+      <c r="E6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1434,8 +2007,8 @@
       <c r="D7" t="s">
         <v>278</v>
       </c>
-      <c r="E7">
-        <v>9806</v>
+      <c r="E7" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1451,8 +2024,8 @@
       <c r="D8" t="s">
         <v>278</v>
       </c>
-      <c r="E8">
-        <v>9807</v>
+      <c r="E8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1468,8 +2041,8 @@
       <c r="D9" t="s">
         <v>278</v>
       </c>
-      <c r="E9">
-        <v>9808</v>
+      <c r="E9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1485,8 +2058,8 @@
       <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="E10">
-        <v>9809</v>
+      <c r="E10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1502,8 +2075,8 @@
       <c r="D11" t="s">
         <v>278</v>
       </c>
-      <c r="E11">
-        <v>9810</v>
+      <c r="E11" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1519,8 +2092,8 @@
       <c r="D12" t="s">
         <v>278</v>
       </c>
-      <c r="E12">
-        <v>9811</v>
+      <c r="E12" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1536,8 +2109,8 @@
       <c r="D13" t="s">
         <v>278</v>
       </c>
-      <c r="E13">
-        <v>9812</v>
+      <c r="E13" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1553,8 +2126,8 @@
       <c r="D14" t="s">
         <v>278</v>
       </c>
-      <c r="E14">
-        <v>9813</v>
+      <c r="E14" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1570,8 +2143,8 @@
       <c r="D15" t="s">
         <v>278</v>
       </c>
-      <c r="E15">
-        <v>9814</v>
+      <c r="E15" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1587,8 +2160,8 @@
       <c r="D16" t="s">
         <v>278</v>
       </c>
-      <c r="E16">
-        <v>9815</v>
+      <c r="E16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1604,8 +2177,8 @@
       <c r="D17" t="s">
         <v>278</v>
       </c>
-      <c r="E17">
-        <v>9816</v>
+      <c r="E17" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1621,8 +2194,8 @@
       <c r="D18" t="s">
         <v>278</v>
       </c>
-      <c r="E18">
-        <v>9817</v>
+      <c r="E18" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1638,8 +2211,8 @@
       <c r="D19" t="s">
         <v>278</v>
       </c>
-      <c r="E19">
-        <v>9818</v>
+      <c r="E19" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1655,8 +2228,8 @@
       <c r="D20" t="s">
         <v>278</v>
       </c>
-      <c r="E20">
-        <v>9819</v>
+      <c r="E20" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1672,8 +2245,8 @@
       <c r="D21" t="s">
         <v>278</v>
       </c>
-      <c r="E21">
-        <v>9820</v>
+      <c r="E21" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1689,8 +2262,8 @@
       <c r="D22" t="s">
         <v>278</v>
       </c>
-      <c r="E22">
-        <v>9821</v>
+      <c r="E22" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1706,8 +2279,8 @@
       <c r="D23" t="s">
         <v>278</v>
       </c>
-      <c r="E23">
-        <v>9822</v>
+      <c r="E23" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1723,8 +2296,8 @@
       <c r="D24" t="s">
         <v>278</v>
       </c>
-      <c r="E24">
-        <v>9823</v>
+      <c r="E24" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1740,8 +2313,8 @@
       <c r="D25" t="s">
         <v>278</v>
       </c>
-      <c r="E25">
-        <v>9824</v>
+      <c r="E25" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1757,8 +2330,8 @@
       <c r="D26" t="s">
         <v>278</v>
       </c>
-      <c r="E26">
-        <v>9825</v>
+      <c r="E26" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1774,8 +2347,8 @@
       <c r="D27" t="s">
         <v>278</v>
       </c>
-      <c r="E27">
-        <v>9826</v>
+      <c r="E27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1791,8 +2364,8 @@
       <c r="D28" t="s">
         <v>278</v>
       </c>
-      <c r="E28">
-        <v>9827</v>
+      <c r="E28" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1808,8 +2381,8 @@
       <c r="D29" t="s">
         <v>278</v>
       </c>
-      <c r="E29">
-        <v>9828</v>
+      <c r="E29" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1825,8 +2398,8 @@
       <c r="D30" t="s">
         <v>278</v>
       </c>
-      <c r="E30">
-        <v>9829</v>
+      <c r="E30" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1842,8 +2415,8 @@
       <c r="D31" t="s">
         <v>278</v>
       </c>
-      <c r="E31">
-        <v>9830</v>
+      <c r="E31" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1859,8 +2432,8 @@
       <c r="D32" t="s">
         <v>278</v>
       </c>
-      <c r="E32">
-        <v>9831</v>
+      <c r="E32" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1876,8 +2449,8 @@
       <c r="D33" t="s">
         <v>278</v>
       </c>
-      <c r="E33">
-        <v>9832</v>
+      <c r="E33" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1893,8 +2466,8 @@
       <c r="D34" t="s">
         <v>278</v>
       </c>
-      <c r="E34">
-        <v>9833</v>
+      <c r="E34" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1910,8 +2483,8 @@
       <c r="D35" t="s">
         <v>278</v>
       </c>
-      <c r="E35">
-        <v>9834</v>
+      <c r="E35" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1927,8 +2500,8 @@
       <c r="D36" t="s">
         <v>278</v>
       </c>
-      <c r="E36">
-        <v>9835</v>
+      <c r="E36" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1944,8 +2517,8 @@
       <c r="D37" t="s">
         <v>278</v>
       </c>
-      <c r="E37">
-        <v>9836</v>
+      <c r="E37" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1961,8 +2534,8 @@
       <c r="D38" t="s">
         <v>278</v>
       </c>
-      <c r="E38">
-        <v>9837</v>
+      <c r="E38" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1978,8 +2551,8 @@
       <c r="D39" t="s">
         <v>278</v>
       </c>
-      <c r="E39">
-        <v>9838</v>
+      <c r="E39" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1995,8 +2568,8 @@
       <c r="D40" t="s">
         <v>278</v>
       </c>
-      <c r="E40">
-        <v>9839</v>
+      <c r="E40" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2012,8 +2585,8 @@
       <c r="D41" t="s">
         <v>278</v>
       </c>
-      <c r="E41">
-        <v>9840</v>
+      <c r="E41" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2029,8 +2602,8 @@
       <c r="D42" t="s">
         <v>278</v>
       </c>
-      <c r="E42">
-        <v>9841</v>
+      <c r="E42" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2046,8 +2619,8 @@
       <c r="D43" t="s">
         <v>278</v>
       </c>
-      <c r="E43">
-        <v>9842</v>
+      <c r="E43" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2063,8 +2636,8 @@
       <c r="D44" t="s">
         <v>278</v>
       </c>
-      <c r="E44">
-        <v>9843</v>
+      <c r="E44" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2080,8 +2653,8 @@
       <c r="D45" t="s">
         <v>278</v>
       </c>
-      <c r="E45">
-        <v>9844</v>
+      <c r="E45" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2097,8 +2670,8 @@
       <c r="D46" t="s">
         <v>278</v>
       </c>
-      <c r="E46">
-        <v>9845</v>
+      <c r="E46" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2114,8 +2687,8 @@
       <c r="D47" t="s">
         <v>278</v>
       </c>
-      <c r="E47">
-        <v>9846</v>
+      <c r="E47" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2131,8 +2704,8 @@
       <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="E48">
-        <v>9847</v>
+      <c r="E48" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2148,8 +2721,8 @@
       <c r="D49" t="s">
         <v>278</v>
       </c>
-      <c r="E49">
-        <v>9848</v>
+      <c r="E49" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2165,8 +2738,8 @@
       <c r="D50" t="s">
         <v>278</v>
       </c>
-      <c r="E50">
-        <v>9849</v>
+      <c r="E50" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2182,8 +2755,8 @@
       <c r="D51" t="s">
         <v>295</v>
       </c>
-      <c r="E51">
-        <v>9801</v>
+      <c r="E51" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2199,8 +2772,8 @@
       <c r="D52" t="s">
         <v>295</v>
       </c>
-      <c r="E52">
-        <v>9802</v>
+      <c r="E52" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2216,8 +2789,8 @@
       <c r="D53" t="s">
         <v>295</v>
       </c>
-      <c r="E53">
-        <v>9803</v>
+      <c r="E53" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2233,8 +2806,8 @@
       <c r="D54" t="s">
         <v>295</v>
       </c>
-      <c r="E54">
-        <v>9804</v>
+      <c r="E54" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2250,8 +2823,8 @@
       <c r="D55" t="s">
         <v>295</v>
       </c>
-      <c r="E55">
-        <v>9805</v>
+      <c r="E55" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2267,8 +2840,8 @@
       <c r="D56" t="s">
         <v>295</v>
       </c>
-      <c r="E56">
-        <v>9806</v>
+      <c r="E56" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2284,8 +2857,8 @@
       <c r="D57" t="s">
         <v>295</v>
       </c>
-      <c r="E57">
-        <v>9807</v>
+      <c r="E57" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2301,8 +2874,8 @@
       <c r="D58" t="s">
         <v>295</v>
       </c>
-      <c r="E58">
-        <v>9808</v>
+      <c r="E58" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2318,8 +2891,8 @@
       <c r="D59" t="s">
         <v>295</v>
       </c>
-      <c r="E59">
-        <v>9809</v>
+      <c r="E59" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2335,8 +2908,8 @@
       <c r="D60" t="s">
         <v>295</v>
       </c>
-      <c r="E60">
-        <v>9810</v>
+      <c r="E60" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2352,8 +2925,8 @@
       <c r="D61" t="s">
         <v>295</v>
       </c>
-      <c r="E61">
-        <v>9811</v>
+      <c r="E61" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2369,8 +2942,8 @@
       <c r="D62" t="s">
         <v>295</v>
       </c>
-      <c r="E62">
-        <v>9812</v>
+      <c r="E62" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2386,8 +2959,8 @@
       <c r="D63" t="s">
         <v>295</v>
       </c>
-      <c r="E63">
-        <v>9813</v>
+      <c r="E63" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2403,8 +2976,8 @@
       <c r="D64" t="s">
         <v>295</v>
       </c>
-      <c r="E64">
-        <v>9814</v>
+      <c r="E64" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2420,8 +2993,8 @@
       <c r="D65" t="s">
         <v>295</v>
       </c>
-      <c r="E65">
-        <v>9815</v>
+      <c r="E65" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2437,8 +3010,8 @@
       <c r="D66" t="s">
         <v>295</v>
       </c>
-      <c r="E66">
-        <v>9816</v>
+      <c r="E66" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2454,8 +3027,8 @@
       <c r="D67" t="s">
         <v>295</v>
       </c>
-      <c r="E67">
-        <v>9817</v>
+      <c r="E67" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2471,8 +3044,8 @@
       <c r="D68" t="s">
         <v>295</v>
       </c>
-      <c r="E68">
-        <v>9818</v>
+      <c r="E68" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2488,8 +3061,8 @@
       <c r="D69" t="s">
         <v>295</v>
       </c>
-      <c r="E69">
-        <v>9819</v>
+      <c r="E69" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2505,8 +3078,8 @@
       <c r="D70" t="s">
         <v>295</v>
       </c>
-      <c r="E70">
-        <v>9820</v>
+      <c r="E70" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2522,8 +3095,8 @@
       <c r="D71" t="s">
         <v>295</v>
       </c>
-      <c r="E71">
-        <v>9821</v>
+      <c r="E71" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2539,8 +3112,8 @@
       <c r="D72" t="s">
         <v>295</v>
       </c>
-      <c r="E72">
-        <v>9822</v>
+      <c r="E72" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2556,8 +3129,8 @@
       <c r="D73" t="s">
         <v>295</v>
       </c>
-      <c r="E73">
-        <v>9823</v>
+      <c r="E73" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2573,8 +3146,8 @@
       <c r="D74" t="s">
         <v>295</v>
       </c>
-      <c r="E74">
-        <v>9824</v>
+      <c r="E74" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2590,8 +3163,8 @@
       <c r="D75" t="s">
         <v>295</v>
       </c>
-      <c r="E75">
-        <v>9825</v>
+      <c r="E75" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2607,8 +3180,8 @@
       <c r="D76" t="s">
         <v>295</v>
       </c>
-      <c r="E76">
-        <v>9826</v>
+      <c r="E76" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2624,8 +3197,8 @@
       <c r="D77" t="s">
         <v>295</v>
       </c>
-      <c r="E77">
-        <v>9827</v>
+      <c r="E77" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2641,8 +3214,8 @@
       <c r="D78" t="s">
         <v>295</v>
       </c>
-      <c r="E78">
-        <v>9828</v>
+      <c r="E78" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2658,8 +3231,8 @@
       <c r="D79" t="s">
         <v>295</v>
       </c>
-      <c r="E79">
-        <v>9829</v>
+      <c r="E79" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2675,8 +3248,8 @@
       <c r="D80" t="s">
         <v>295</v>
       </c>
-      <c r="E80">
-        <v>9830</v>
+      <c r="E80" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2692,8 +3265,8 @@
       <c r="D81" t="s">
         <v>295</v>
       </c>
-      <c r="E81">
-        <v>9831</v>
+      <c r="E81" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2709,8 +3282,8 @@
       <c r="D82" t="s">
         <v>295</v>
       </c>
-      <c r="E82">
-        <v>9832</v>
+      <c r="E82" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2726,8 +3299,8 @@
       <c r="D83" t="s">
         <v>295</v>
       </c>
-      <c r="E83">
-        <v>9833</v>
+      <c r="E83" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2743,8 +3316,8 @@
       <c r="D84" t="s">
         <v>295</v>
       </c>
-      <c r="E84">
-        <v>9834</v>
+      <c r="E84" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2760,8 +3333,8 @@
       <c r="D85" t="s">
         <v>295</v>
       </c>
-      <c r="E85">
-        <v>9835</v>
+      <c r="E85" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2777,8 +3350,8 @@
       <c r="D86" t="s">
         <v>295</v>
       </c>
-      <c r="E86">
-        <v>9836</v>
+      <c r="E86" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2794,8 +3367,8 @@
       <c r="D87" t="s">
         <v>295</v>
       </c>
-      <c r="E87">
-        <v>9837</v>
+      <c r="E87" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2811,8 +3384,8 @@
       <c r="D88" t="s">
         <v>295</v>
       </c>
-      <c r="E88">
-        <v>9838</v>
+      <c r="E88" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2828,8 +3401,8 @@
       <c r="D89" t="s">
         <v>295</v>
       </c>
-      <c r="E89">
-        <v>9839</v>
+      <c r="E89" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2845,8 +3418,8 @@
       <c r="D90" t="s">
         <v>295</v>
       </c>
-      <c r="E90">
-        <v>9840</v>
+      <c r="E90" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2862,8 +3435,8 @@
       <c r="D91" t="s">
         <v>295</v>
       </c>
-      <c r="E91">
-        <v>9841</v>
+      <c r="E91" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2879,8 +3452,8 @@
       <c r="D92" t="s">
         <v>295</v>
       </c>
-      <c r="E92">
-        <v>9842</v>
+      <c r="E92" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2896,8 +3469,8 @@
       <c r="D93" t="s">
         <v>295</v>
       </c>
-      <c r="E93">
-        <v>9843</v>
+      <c r="E93" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2913,8 +3486,8 @@
       <c r="D94" t="s">
         <v>295</v>
       </c>
-      <c r="E94">
-        <v>9844</v>
+      <c r="E94" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2930,8 +3503,8 @@
       <c r="D95" t="s">
         <v>295</v>
       </c>
-      <c r="E95">
-        <v>9845</v>
+      <c r="E95" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2947,8 +3520,8 @@
       <c r="D96" t="s">
         <v>295</v>
       </c>
-      <c r="E96">
-        <v>9846</v>
+      <c r="E96" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2964,8 +3537,8 @@
       <c r="D97" t="s">
         <v>295</v>
       </c>
-      <c r="E97">
-        <v>9847</v>
+      <c r="E97" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2981,8 +3554,8 @@
       <c r="D98" t="s">
         <v>295</v>
       </c>
-      <c r="E98">
-        <v>9848</v>
+      <c r="E98" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2998,8 +3571,8 @@
       <c r="D99" t="s">
         <v>295</v>
       </c>
-      <c r="E99">
-        <v>9849</v>
+      <c r="E99" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3015,8 +3588,8 @@
       <c r="D100" t="s">
         <v>295</v>
       </c>
-      <c r="E100">
-        <v>9850</v>
+      <c r="E100" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3032,8 +3605,8 @@
       <c r="D101" t="s">
         <v>278</v>
       </c>
-      <c r="E101">
-        <v>9901</v>
+      <c r="E101" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3049,8 +3622,8 @@
       <c r="D102" t="s">
         <v>278</v>
       </c>
-      <c r="E102">
-        <v>9902</v>
+      <c r="E102" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3066,8 +3639,8 @@
       <c r="D103" t="s">
         <v>278</v>
       </c>
-      <c r="E103">
-        <v>9903</v>
+      <c r="E103" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3083,8 +3656,8 @@
       <c r="D104" t="s">
         <v>278</v>
       </c>
-      <c r="E104">
-        <v>9904</v>
+      <c r="E104" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3100,8 +3673,8 @@
       <c r="D105" t="s">
         <v>278</v>
       </c>
-      <c r="E105">
-        <v>9905</v>
+      <c r="E105" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3117,8 +3690,8 @@
       <c r="D106" t="s">
         <v>278</v>
       </c>
-      <c r="E106">
-        <v>9906</v>
+      <c r="E106" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3134,8 +3707,8 @@
       <c r="D107" t="s">
         <v>278</v>
       </c>
-      <c r="E107">
-        <v>9907</v>
+      <c r="E107" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3151,8 +3724,8 @@
       <c r="D108" t="s">
         <v>278</v>
       </c>
-      <c r="E108">
-        <v>9908</v>
+      <c r="E108" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3168,8 +3741,8 @@
       <c r="D109" t="s">
         <v>278</v>
       </c>
-      <c r="E109">
-        <v>9909</v>
+      <c r="E109" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3185,8 +3758,8 @@
       <c r="D110" t="s">
         <v>278</v>
       </c>
-      <c r="E110">
-        <v>9910</v>
+      <c r="E110" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3202,8 +3775,8 @@
       <c r="D111" t="s">
         <v>278</v>
       </c>
-      <c r="E111">
-        <v>9911</v>
+      <c r="E111" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3219,8 +3792,8 @@
       <c r="D112" t="s">
         <v>278</v>
       </c>
-      <c r="E112">
-        <v>9912</v>
+      <c r="E112" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3236,8 +3809,8 @@
       <c r="D113" t="s">
         <v>278</v>
       </c>
-      <c r="E113">
-        <v>9913</v>
+      <c r="E113" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3253,8 +3826,8 @@
       <c r="D114" t="s">
         <v>278</v>
       </c>
-      <c r="E114">
-        <v>9914</v>
+      <c r="E114" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3270,8 +3843,8 @@
       <c r="D115" t="s">
         <v>278</v>
       </c>
-      <c r="E115">
-        <v>9915</v>
+      <c r="E115" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3287,8 +3860,8 @@
       <c r="D116" t="s">
         <v>278</v>
       </c>
-      <c r="E116">
-        <v>9916</v>
+      <c r="E116" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3304,8 +3877,8 @@
       <c r="D117" t="s">
         <v>278</v>
       </c>
-      <c r="E117">
-        <v>9917</v>
+      <c r="E117" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3321,8 +3894,8 @@
       <c r="D118" t="s">
         <v>278</v>
       </c>
-      <c r="E118">
-        <v>9918</v>
+      <c r="E118" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3338,8 +3911,8 @@
       <c r="D119" t="s">
         <v>278</v>
       </c>
-      <c r="E119">
-        <v>9919</v>
+      <c r="E119" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3355,8 +3928,8 @@
       <c r="D120" t="s">
         <v>278</v>
       </c>
-      <c r="E120">
-        <v>9920</v>
+      <c r="E120" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3372,8 +3945,8 @@
       <c r="D121" t="s">
         <v>278</v>
       </c>
-      <c r="E121">
-        <v>9921</v>
+      <c r="E121" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3389,8 +3962,8 @@
       <c r="D122" t="s">
         <v>278</v>
       </c>
-      <c r="E122">
-        <v>9922</v>
+      <c r="E122" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3406,8 +3979,8 @@
       <c r="D123" t="s">
         <v>278</v>
       </c>
-      <c r="E123">
-        <v>9923</v>
+      <c r="E123" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3423,8 +3996,8 @@
       <c r="D124" t="s">
         <v>278</v>
       </c>
-      <c r="E124">
-        <v>9924</v>
+      <c r="E124" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3440,8 +4013,8 @@
       <c r="D125" t="s">
         <v>278</v>
       </c>
-      <c r="E125">
-        <v>9925</v>
+      <c r="E125" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3457,8 +4030,8 @@
       <c r="D126" t="s">
         <v>278</v>
       </c>
-      <c r="E126">
-        <v>9926</v>
+      <c r="E126" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3474,8 +4047,8 @@
       <c r="D127" t="s">
         <v>278</v>
       </c>
-      <c r="E127">
-        <v>9927</v>
+      <c r="E127" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3491,8 +4064,8 @@
       <c r="D128" t="s">
         <v>278</v>
       </c>
-      <c r="E128">
-        <v>9928</v>
+      <c r="E128" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3508,8 +4081,8 @@
       <c r="D129" t="s">
         <v>278</v>
       </c>
-      <c r="E129">
-        <v>9929</v>
+      <c r="E129" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3525,8 +4098,8 @@
       <c r="D130" t="s">
         <v>278</v>
       </c>
-      <c r="E130">
-        <v>9930</v>
+      <c r="E130" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3542,8 +4115,8 @@
       <c r="D131" t="s">
         <v>278</v>
       </c>
-      <c r="E131">
-        <v>9931</v>
+      <c r="E131" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3559,8 +4132,8 @@
       <c r="D132" t="s">
         <v>278</v>
       </c>
-      <c r="E132">
-        <v>9932</v>
+      <c r="E132" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3576,8 +4149,8 @@
       <c r="D133" t="s">
         <v>278</v>
       </c>
-      <c r="E133">
-        <v>9933</v>
+      <c r="E133" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3593,8 +4166,8 @@
       <c r="D134" t="s">
         <v>278</v>
       </c>
-      <c r="E134">
-        <v>9934</v>
+      <c r="E134" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3610,8 +4183,8 @@
       <c r="D135" t="s">
         <v>278</v>
       </c>
-      <c r="E135">
-        <v>9935</v>
+      <c r="E135" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3627,8 +4200,8 @@
       <c r="D136" t="s">
         <v>278</v>
       </c>
-      <c r="E136">
-        <v>9936</v>
+      <c r="E136" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3644,8 +4217,8 @@
       <c r="D137" t="s">
         <v>278</v>
       </c>
-      <c r="E137">
-        <v>9937</v>
+      <c r="E137" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3661,8 +4234,8 @@
       <c r="D138" t="s">
         <v>278</v>
       </c>
-      <c r="E138">
-        <v>9938</v>
+      <c r="E138" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3678,8 +4251,8 @@
       <c r="D139" t="s">
         <v>278</v>
       </c>
-      <c r="E139">
-        <v>9939</v>
+      <c r="E139" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3695,8 +4268,8 @@
       <c r="D140" t="s">
         <v>278</v>
       </c>
-      <c r="E140">
-        <v>9940</v>
+      <c r="E140" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3712,8 +4285,8 @@
       <c r="D141" t="s">
         <v>278</v>
       </c>
-      <c r="E141">
-        <v>9941</v>
+      <c r="E141" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3729,8 +4302,8 @@
       <c r="D142" t="s">
         <v>278</v>
       </c>
-      <c r="E142">
-        <v>9942</v>
+      <c r="E142" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3746,8 +4319,8 @@
       <c r="D143" t="s">
         <v>278</v>
       </c>
-      <c r="E143">
-        <v>9943</v>
+      <c r="E143" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3763,8 +4336,8 @@
       <c r="D144" t="s">
         <v>278</v>
       </c>
-      <c r="E144">
-        <v>9944</v>
+      <c r="E144" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3780,8 +4353,8 @@
       <c r="D145" t="s">
         <v>278</v>
       </c>
-      <c r="E145">
-        <v>9945</v>
+      <c r="E145" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3797,8 +4370,8 @@
       <c r="D146" t="s">
         <v>278</v>
       </c>
-      <c r="E146">
-        <v>9946</v>
+      <c r="E146" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3814,8 +4387,8 @@
       <c r="D147" t="s">
         <v>295</v>
       </c>
-      <c r="E147">
-        <v>9901</v>
+      <c r="E147" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3831,8 +4404,8 @@
       <c r="D148" t="s">
         <v>295</v>
       </c>
-      <c r="E148">
-        <v>9902</v>
+      <c r="E148" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3848,8 +4421,8 @@
       <c r="D149" t="s">
         <v>295</v>
       </c>
-      <c r="E149">
-        <v>9903</v>
+      <c r="E149" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3865,8 +4438,8 @@
       <c r="D150" t="s">
         <v>295</v>
       </c>
-      <c r="E150">
-        <v>9904</v>
+      <c r="E150" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3882,8 +4455,8 @@
       <c r="D151" t="s">
         <v>295</v>
       </c>
-      <c r="E151">
-        <v>9905</v>
+      <c r="E151" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3899,8 +4472,8 @@
       <c r="D152" t="s">
         <v>295</v>
       </c>
-      <c r="E152">
-        <v>9906</v>
+      <c r="E152" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3916,8 +4489,8 @@
       <c r="D153" t="s">
         <v>295</v>
       </c>
-      <c r="E153">
-        <v>9907</v>
+      <c r="E153" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3933,8 +4506,8 @@
       <c r="D154" t="s">
         <v>295</v>
       </c>
-      <c r="E154">
-        <v>9908</v>
+      <c r="E154" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3950,8 +4523,8 @@
       <c r="D155" t="s">
         <v>295</v>
       </c>
-      <c r="E155">
-        <v>9909</v>
+      <c r="E155" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3967,8 +4540,8 @@
       <c r="D156" t="s">
         <v>295</v>
       </c>
-      <c r="E156">
-        <v>9910</v>
+      <c r="E156" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3984,8 +4557,8 @@
       <c r="D157" t="s">
         <v>295</v>
       </c>
-      <c r="E157">
-        <v>9911</v>
+      <c r="E157" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4001,8 +4574,8 @@
       <c r="D158" t="s">
         <v>295</v>
       </c>
-      <c r="E158">
-        <v>9912</v>
+      <c r="E158" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4018,8 +4591,8 @@
       <c r="D159" t="s">
         <v>295</v>
       </c>
-      <c r="E159">
-        <v>9913</v>
+      <c r="E159" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4035,8 +4608,8 @@
       <c r="D160" t="s">
         <v>295</v>
       </c>
-      <c r="E160">
-        <v>9914</v>
+      <c r="E160" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4052,8 +4625,8 @@
       <c r="D161" t="s">
         <v>295</v>
       </c>
-      <c r="E161">
-        <v>9915</v>
+      <c r="E161" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4069,8 +4642,8 @@
       <c r="D162" t="s">
         <v>295</v>
       </c>
-      <c r="E162">
-        <v>9916</v>
+      <c r="E162" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4086,8 +4659,8 @@
       <c r="D163" t="s">
         <v>295</v>
       </c>
-      <c r="E163">
-        <v>9917</v>
+      <c r="E163" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4103,8 +4676,8 @@
       <c r="D164" t="s">
         <v>295</v>
       </c>
-      <c r="E164">
-        <v>9918</v>
+      <c r="E164" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4120,8 +4693,8 @@
       <c r="D165" t="s">
         <v>295</v>
       </c>
-      <c r="E165">
-        <v>9919</v>
+      <c r="E165" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4137,8 +4710,8 @@
       <c r="D166" t="s">
         <v>295</v>
       </c>
-      <c r="E166">
-        <v>9920</v>
+      <c r="E166" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4154,8 +4727,8 @@
       <c r="D167" t="s">
         <v>295</v>
       </c>
-      <c r="E167">
-        <v>9921</v>
+      <c r="E167" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4171,8 +4744,8 @@
       <c r="D168" t="s">
         <v>295</v>
       </c>
-      <c r="E168">
-        <v>9922</v>
+      <c r="E168" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4188,8 +4761,8 @@
       <c r="D169" t="s">
         <v>295</v>
       </c>
-      <c r="E169">
-        <v>9923</v>
+      <c r="E169" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4205,8 +4778,8 @@
       <c r="D170" t="s">
         <v>295</v>
       </c>
-      <c r="E170">
-        <v>9924</v>
+      <c r="E170" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4222,8 +4795,8 @@
       <c r="D171" t="s">
         <v>295</v>
       </c>
-      <c r="E171">
-        <v>9925</v>
+      <c r="E171" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4239,8 +4812,8 @@
       <c r="D172" t="s">
         <v>295</v>
       </c>
-      <c r="E172">
-        <v>9926</v>
+      <c r="E172" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4256,8 +4829,8 @@
       <c r="D173" t="s">
         <v>295</v>
       </c>
-      <c r="E173">
-        <v>9927</v>
+      <c r="E173" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4273,8 +4846,8 @@
       <c r="D174" t="s">
         <v>295</v>
       </c>
-      <c r="E174">
-        <v>9928</v>
+      <c r="E174" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4290,8 +4863,8 @@
       <c r="D175" t="s">
         <v>295</v>
       </c>
-      <c r="E175">
-        <v>9929</v>
+      <c r="E175" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4307,8 +4880,8 @@
       <c r="D176" t="s">
         <v>295</v>
       </c>
-      <c r="E176">
-        <v>9930</v>
+      <c r="E176" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4324,8 +4897,8 @@
       <c r="D177" t="s">
         <v>295</v>
       </c>
-      <c r="E177">
-        <v>9931</v>
+      <c r="E177" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4341,8 +4914,8 @@
       <c r="D178" t="s">
         <v>295</v>
       </c>
-      <c r="E178">
-        <v>9932</v>
+      <c r="E178" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4358,8 +4931,8 @@
       <c r="D179" t="s">
         <v>295</v>
       </c>
-      <c r="E179">
-        <v>9933</v>
+      <c r="E179" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4375,8 +4948,8 @@
       <c r="D180" t="s">
         <v>295</v>
       </c>
-      <c r="E180">
-        <v>9934</v>
+      <c r="E180" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4392,8 +4965,8 @@
       <c r="D181" t="s">
         <v>295</v>
       </c>
-      <c r="E181">
-        <v>9935</v>
+      <c r="E181" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4409,8 +4982,8 @@
       <c r="D182" t="s">
         <v>295</v>
       </c>
-      <c r="E182">
-        <v>9936</v>
+      <c r="E182" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4426,8 +4999,8 @@
       <c r="D183" t="s">
         <v>295</v>
       </c>
-      <c r="E183">
-        <v>9937</v>
+      <c r="E183" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4443,8 +5016,8 @@
       <c r="D184" t="s">
         <v>295</v>
       </c>
-      <c r="E184">
-        <v>9938</v>
+      <c r="E184" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4460,8 +5033,8 @@
       <c r="D185" t="s">
         <v>295</v>
       </c>
-      <c r="E185">
-        <v>9939</v>
+      <c r="E185" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4477,8 +5050,8 @@
       <c r="D186" t="s">
         <v>295</v>
       </c>
-      <c r="E186">
-        <v>9940</v>
+      <c r="E186" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4494,8 +5067,8 @@
       <c r="D187" t="s">
         <v>295</v>
       </c>
-      <c r="E187">
-        <v>9941</v>
+      <c r="E187" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4511,8 +5084,8 @@
       <c r="D188" t="s">
         <v>295</v>
       </c>
-      <c r="E188">
-        <v>9942</v>
+      <c r="E188" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4528,8 +5101,8 @@
       <c r="D189" t="s">
         <v>295</v>
       </c>
-      <c r="E189">
-        <v>9943</v>
+      <c r="E189" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4545,8 +5118,8 @@
       <c r="D190" t="s">
         <v>295</v>
       </c>
-      <c r="E190">
-        <v>9944</v>
+      <c r="E190" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4562,8 +5135,8 @@
       <c r="D191" t="s">
         <v>295</v>
       </c>
-      <c r="E191">
-        <v>9945</v>
+      <c r="E191" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4579,8 +5152,8 @@
       <c r="D192" t="s">
         <v>295</v>
       </c>
-      <c r="E192">
-        <v>9946</v>
+      <c r="E192" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/investment dictionary.xlsx
+++ b/investment dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CFDF5-AC22-EE4D-89DC-4F209FA67287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68330D9-275A-7644-B2B1-C13D2C40E304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="820" windowWidth="42280" windowHeight="34660" xr2:uid="{0F44D3E6-F285-C344-9A66-5814EE0BA308}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="296">
   <si>
     <t>A756RC</t>
   </si>
@@ -923,579 +923,6 @@
   </si>
   <si>
     <t>Dollars (2017)</t>
-  </si>
-  <si>
-    <t>99100000</t>
-  </si>
-  <si>
-    <t>99110000</t>
-  </si>
-  <si>
-    <t>99111000</t>
-  </si>
-  <si>
-    <t>99111100</t>
-  </si>
-  <si>
-    <t>99111200</t>
-  </si>
-  <si>
-    <t>99111210</t>
-  </si>
-  <si>
-    <t>99111211</t>
-  </si>
-  <si>
-    <t>99111212</t>
-  </si>
-  <si>
-    <t>99111220</t>
-  </si>
-  <si>
-    <t>99111300</t>
-  </si>
-  <si>
-    <t>99111400</t>
-  </si>
-  <si>
-    <t>99111500</t>
-  </si>
-  <si>
-    <t>99111600</t>
-  </si>
-  <si>
-    <t>99112000</t>
-  </si>
-  <si>
-    <t>99113000</t>
-  </si>
-  <si>
-    <t>99113100</t>
-  </si>
-  <si>
-    <t>99113110</t>
-  </si>
-  <si>
-    <t>99113111</t>
-  </si>
-  <si>
-    <t>99113112</t>
-  </si>
-  <si>
-    <t>99113120</t>
-  </si>
-  <si>
-    <t>99113200</t>
-  </si>
-  <si>
-    <t>99114000</t>
-  </si>
-  <si>
-    <t>99114100</t>
-  </si>
-  <si>
-    <t>99114200</t>
-  </si>
-  <si>
-    <t>99115000</t>
-  </si>
-  <si>
-    <t>99115100</t>
-  </si>
-  <si>
-    <t>99115200</t>
-  </si>
-  <si>
-    <t>99115300</t>
-  </si>
-  <si>
-    <t>99115400</t>
-  </si>
-  <si>
-    <t>99115600</t>
-  </si>
-  <si>
-    <t>99115610</t>
-  </si>
-  <si>
-    <t>99115620</t>
-  </si>
-  <si>
-    <t>99115700</t>
-  </si>
-  <si>
-    <t>99115800</t>
-  </si>
-  <si>
-    <t>99115900</t>
-  </si>
-  <si>
-    <t>99115999</t>
-  </si>
-  <si>
-    <t>99116000</t>
-  </si>
-  <si>
-    <t>99116100</t>
-  </si>
-  <si>
-    <t>99116110</t>
-  </si>
-  <si>
-    <t>99116120</t>
-  </si>
-  <si>
-    <t>99116200</t>
-  </si>
-  <si>
-    <t>99116210</t>
-  </si>
-  <si>
-    <t>99116220</t>
-  </si>
-  <si>
-    <t>99116230</t>
-  </si>
-  <si>
-    <t>99116240</t>
-  </si>
-  <si>
-    <t>99116250</t>
-  </si>
-  <si>
-    <t>99116300</t>
-  </si>
-  <si>
-    <t>99116310</t>
-  </si>
-  <si>
-    <t>99116320</t>
-  </si>
-  <si>
-    <t>99200000</t>
-  </si>
-  <si>
-    <t>99210000</t>
-  </si>
-  <si>
-    <t>99211000</t>
-  </si>
-  <si>
-    <t>99211100</t>
-  </si>
-  <si>
-    <t>99211200</t>
-  </si>
-  <si>
-    <t>99211210</t>
-  </si>
-  <si>
-    <t>99211211</t>
-  </si>
-  <si>
-    <t>99211212</t>
-  </si>
-  <si>
-    <t>99211220</t>
-  </si>
-  <si>
-    <t>99211300</t>
-  </si>
-  <si>
-    <t>99211400</t>
-  </si>
-  <si>
-    <t>99211500</t>
-  </si>
-  <si>
-    <t>99211600</t>
-  </si>
-  <si>
-    <t>99212000</t>
-  </si>
-  <si>
-    <t>99213000</t>
-  </si>
-  <si>
-    <t>99213100</t>
-  </si>
-  <si>
-    <t>99213110</t>
-  </si>
-  <si>
-    <t>99213111</t>
-  </si>
-  <si>
-    <t>99213112</t>
-  </si>
-  <si>
-    <t>99213120</t>
-  </si>
-  <si>
-    <t>99213200</t>
-  </si>
-  <si>
-    <t>99214000</t>
-  </si>
-  <si>
-    <t>99214100</t>
-  </si>
-  <si>
-    <t>99214200</t>
-  </si>
-  <si>
-    <t>99215000</t>
-  </si>
-  <si>
-    <t>99215100</t>
-  </si>
-  <si>
-    <t>99215200</t>
-  </si>
-  <si>
-    <t>99215300</t>
-  </si>
-  <si>
-    <t>99215400</t>
-  </si>
-  <si>
-    <t>99215500</t>
-  </si>
-  <si>
-    <t>99215510</t>
-  </si>
-  <si>
-    <t>99215520</t>
-  </si>
-  <si>
-    <t>99215600</t>
-  </si>
-  <si>
-    <t>99215700</t>
-  </si>
-  <si>
-    <t>99215800</t>
-  </si>
-  <si>
-    <t>99215900</t>
-  </si>
-  <si>
-    <t>99220000</t>
-  </si>
-  <si>
-    <t>99221000</t>
-  </si>
-  <si>
-    <t>99221100</t>
-  </si>
-  <si>
-    <t>99221200</t>
-  </si>
-  <si>
-    <t>99222000</t>
-  </si>
-  <si>
-    <t>99222100</t>
-  </si>
-  <si>
-    <t>99222200</t>
-  </si>
-  <si>
-    <t>99222300</t>
-  </si>
-  <si>
-    <t>99222400</t>
-  </si>
-  <si>
-    <t>99222500</t>
-  </si>
-  <si>
-    <t>99230000</t>
-  </si>
-  <si>
-    <t>99231000</t>
-  </si>
-  <si>
-    <t>99231100</t>
-  </si>
-  <si>
-    <t>99231200</t>
-  </si>
-  <si>
-    <t>99300000</t>
-  </si>
-  <si>
-    <t>99310000</t>
-  </si>
-  <si>
-    <t>99311000</t>
-  </si>
-  <si>
-    <t>99311100</t>
-  </si>
-  <si>
-    <t>99311200</t>
-  </si>
-  <si>
-    <t>99311300</t>
-  </si>
-  <si>
-    <t>99311310</t>
-  </si>
-  <si>
-    <t>99311320</t>
-  </si>
-  <si>
-    <t>99311400</t>
-  </si>
-  <si>
-    <t>99311500</t>
-  </si>
-  <si>
-    <t>99311600</t>
-  </si>
-  <si>
-    <t>99312000</t>
-  </si>
-  <si>
-    <t>99312100</t>
-  </si>
-  <si>
-    <t>99312200</t>
-  </si>
-  <si>
-    <t>99312210</t>
-  </si>
-  <si>
-    <t>99312220</t>
-  </si>
-  <si>
-    <t>99312300</t>
-  </si>
-  <si>
-    <t>99312400</t>
-  </si>
-  <si>
-    <t>99312500</t>
-  </si>
-  <si>
-    <t>99312600</t>
-  </si>
-  <si>
-    <t>99313000</t>
-  </si>
-  <si>
-    <t>99313100</t>
-  </si>
-  <si>
-    <t>99313110</t>
-  </si>
-  <si>
-    <t>99313120</t>
-  </si>
-  <si>
-    <t>99313200</t>
-  </si>
-  <si>
-    <t>99313300</t>
-  </si>
-  <si>
-    <t>99313400</t>
-  </si>
-  <si>
-    <t>99313500</t>
-  </si>
-  <si>
-    <t>99314000</t>
-  </si>
-  <si>
-    <t>99314100</t>
-  </si>
-  <si>
-    <t>99314110</t>
-  </si>
-  <si>
-    <t>99314120</t>
-  </si>
-  <si>
-    <t>99314200</t>
-  </si>
-  <si>
-    <t>99314210</t>
-  </si>
-  <si>
-    <t>99314220</t>
-  </si>
-  <si>
-    <t>99314300</t>
-  </si>
-  <si>
-    <t>99314310</t>
-  </si>
-  <si>
-    <t>99314320</t>
-  </si>
-  <si>
-    <t>99314400</t>
-  </si>
-  <si>
-    <t>99314500</t>
-  </si>
-  <si>
-    <t>99314600</t>
-  </si>
-  <si>
-    <t>99314610</t>
-  </si>
-  <si>
-    <t>99314620</t>
-  </si>
-  <si>
-    <t>99314700</t>
-  </si>
-  <si>
-    <t>99315000</t>
-  </si>
-  <si>
-    <t>99320000</t>
-  </si>
-  <si>
-    <t>99400000</t>
-  </si>
-  <si>
-    <t>99410000</t>
-  </si>
-  <si>
-    <t>99411000</t>
-  </si>
-  <si>
-    <t>99411100</t>
-  </si>
-  <si>
-    <t>99411200</t>
-  </si>
-  <si>
-    <t>99411300</t>
-  </si>
-  <si>
-    <t>99411310</t>
-  </si>
-  <si>
-    <t>99411320</t>
-  </si>
-  <si>
-    <t>99411400</t>
-  </si>
-  <si>
-    <t>99411500</t>
-  </si>
-  <si>
-    <t>99411600</t>
-  </si>
-  <si>
-    <t>99412000</t>
-  </si>
-  <si>
-    <t>99412100</t>
-  </si>
-  <si>
-    <t>99412200</t>
-  </si>
-  <si>
-    <t>99412210</t>
-  </si>
-  <si>
-    <t>99412220</t>
-  </si>
-  <si>
-    <t>99412300</t>
-  </si>
-  <si>
-    <t>99412400</t>
-  </si>
-  <si>
-    <t>99412500</t>
-  </si>
-  <si>
-    <t>99412600</t>
-  </si>
-  <si>
-    <t>99413000</t>
-  </si>
-  <si>
-    <t>99413100</t>
-  </si>
-  <si>
-    <t>99413110</t>
-  </si>
-  <si>
-    <t>99413120</t>
-  </si>
-  <si>
-    <t>99413200</t>
-  </si>
-  <si>
-    <t>99413300</t>
-  </si>
-  <si>
-    <t>99413400</t>
-  </si>
-  <si>
-    <t>99413500</t>
-  </si>
-  <si>
-    <t>99414000</t>
-  </si>
-  <si>
-    <t>99414100</t>
-  </si>
-  <si>
-    <t>99414110</t>
-  </si>
-  <si>
-    <t>99414120</t>
-  </si>
-  <si>
-    <t>99414200</t>
-  </si>
-  <si>
-    <t>99414210</t>
-  </si>
-  <si>
-    <t>99414220</t>
-  </si>
-  <si>
-    <t>99414300</t>
-  </si>
-  <si>
-    <t>99414310</t>
-  </si>
-  <si>
-    <t>99414320</t>
-  </si>
-  <si>
-    <t>99414400</t>
-  </si>
-  <si>
-    <t>99414500</t>
-  </si>
-  <si>
-    <t>99414600</t>
-  </si>
-  <si>
-    <t>99414610</t>
-  </si>
-  <si>
-    <t>99414620</t>
-  </si>
-  <si>
-    <t>99414700</t>
-  </si>
-  <si>
-    <t>99415000</t>
-  </si>
-  <si>
-    <t>99420000</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1564,6 +991,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1882,7 +1310,7 @@
   <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6:E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0.3"/>
@@ -1922,8 +1350,8 @@
       <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="E2" t="s">
-        <v>296</v>
+      <c r="E2" s="5">
+        <v>99100000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1939,8 +1367,8 @@
       <c r="D3" t="s">
         <v>278</v>
       </c>
-      <c r="E3" t="s">
-        <v>297</v>
+      <c r="E3" s="5">
+        <v>99110000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1956,8 +1384,8 @@
       <c r="D4" t="s">
         <v>278</v>
       </c>
-      <c r="E4" t="s">
-        <v>298</v>
+      <c r="E4" s="5">
+        <v>99111000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1973,8 +1401,8 @@
       <c r="D5" t="s">
         <v>278</v>
       </c>
-      <c r="E5" t="s">
-        <v>299</v>
+      <c r="E5" s="5">
+        <v>99111100</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1990,8 +1418,8 @@
       <c r="D6" t="s">
         <v>278</v>
       </c>
-      <c r="E6" t="s">
-        <v>300</v>
+      <c r="E6" s="5">
+        <v>99111200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2007,8 +1435,8 @@
       <c r="D7" t="s">
         <v>278</v>
       </c>
-      <c r="E7" t="s">
-        <v>301</v>
+      <c r="E7" s="5">
+        <v>99111210</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2024,8 +1452,8 @@
       <c r="D8" t="s">
         <v>278</v>
       </c>
-      <c r="E8" t="s">
-        <v>302</v>
+      <c r="E8" s="5">
+        <v>99111211</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2041,8 +1469,8 @@
       <c r="D9" t="s">
         <v>278</v>
       </c>
-      <c r="E9" t="s">
-        <v>303</v>
+      <c r="E9" s="5">
+        <v>99111212</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2058,8 +1486,8 @@
       <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="E10" t="s">
-        <v>304</v>
+      <c r="E10" s="5">
+        <v>99111220</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2075,8 +1503,8 @@
       <c r="D11" t="s">
         <v>278</v>
       </c>
-      <c r="E11" t="s">
-        <v>305</v>
+      <c r="E11" s="5">
+        <v>99111300</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2092,8 +1520,8 @@
       <c r="D12" t="s">
         <v>278</v>
       </c>
-      <c r="E12" t="s">
-        <v>306</v>
+      <c r="E12" s="5">
+        <v>99111400</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2109,8 +1537,8 @@
       <c r="D13" t="s">
         <v>278</v>
       </c>
-      <c r="E13" t="s">
-        <v>307</v>
+      <c r="E13" s="5">
+        <v>99111500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2126,8 +1554,8 @@
       <c r="D14" t="s">
         <v>278</v>
       </c>
-      <c r="E14" t="s">
-        <v>308</v>
+      <c r="E14" s="5">
+        <v>99111600</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2143,8 +1571,8 @@
       <c r="D15" t="s">
         <v>278</v>
       </c>
-      <c r="E15" t="s">
-        <v>309</v>
+      <c r="E15" s="5">
+        <v>99112000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2160,8 +1588,8 @@
       <c r="D16" t="s">
         <v>278</v>
       </c>
-      <c r="E16" t="s">
-        <v>310</v>
+      <c r="E16" s="5">
+        <v>99113000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2177,8 +1605,8 @@
       <c r="D17" t="s">
         <v>278</v>
       </c>
-      <c r="E17" t="s">
-        <v>311</v>
+      <c r="E17" s="5">
+        <v>99113100</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2194,8 +1622,8 @@
       <c r="D18" t="s">
         <v>278</v>
       </c>
-      <c r="E18" t="s">
-        <v>312</v>
+      <c r="E18" s="5">
+        <v>99113110</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2211,8 +1639,8 @@
       <c r="D19" t="s">
         <v>278</v>
       </c>
-      <c r="E19" t="s">
-        <v>313</v>
+      <c r="E19" s="5">
+        <v>99113111</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2228,8 +1656,8 @@
       <c r="D20" t="s">
         <v>278</v>
       </c>
-      <c r="E20" t="s">
-        <v>314</v>
+      <c r="E20" s="5">
+        <v>99113112</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2245,8 +1673,8 @@
       <c r="D21" t="s">
         <v>278</v>
       </c>
-      <c r="E21" t="s">
-        <v>315</v>
+      <c r="E21" s="5">
+        <v>99113120</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2262,8 +1690,8 @@
       <c r="D22" t="s">
         <v>278</v>
       </c>
-      <c r="E22" t="s">
-        <v>316</v>
+      <c r="E22" s="5">
+        <v>99113200</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2279,8 +1707,8 @@
       <c r="D23" t="s">
         <v>278</v>
       </c>
-      <c r="E23" t="s">
-        <v>317</v>
+      <c r="E23" s="5">
+        <v>99114000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2296,8 +1724,8 @@
       <c r="D24" t="s">
         <v>278</v>
       </c>
-      <c r="E24" t="s">
-        <v>318</v>
+      <c r="E24" s="5">
+        <v>99114100</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2313,8 +1741,8 @@
       <c r="D25" t="s">
         <v>278</v>
       </c>
-      <c r="E25" t="s">
-        <v>319</v>
+      <c r="E25" s="5">
+        <v>99114200</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2330,8 +1758,8 @@
       <c r="D26" t="s">
         <v>278</v>
       </c>
-      <c r="E26" t="s">
-        <v>320</v>
+      <c r="E26" s="5">
+        <v>99115000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2347,8 +1775,8 @@
       <c r="D27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" t="s">
-        <v>321</v>
+      <c r="E27" s="5">
+        <v>99115100</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2364,8 +1792,8 @@
       <c r="D28" t="s">
         <v>278</v>
       </c>
-      <c r="E28" t="s">
-        <v>322</v>
+      <c r="E28" s="5">
+        <v>99115200</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2381,8 +1809,8 @@
       <c r="D29" t="s">
         <v>278</v>
       </c>
-      <c r="E29" t="s">
-        <v>323</v>
+      <c r="E29" s="5">
+        <v>99115300</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2398,8 +1826,8 @@
       <c r="D30" t="s">
         <v>278</v>
       </c>
-      <c r="E30" t="s">
-        <v>324</v>
+      <c r="E30" s="5">
+        <v>99115400</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2415,8 +1843,8 @@
       <c r="D31" t="s">
         <v>278</v>
       </c>
-      <c r="E31" t="s">
-        <v>325</v>
+      <c r="E31" s="5">
+        <v>99115600</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2432,8 +1860,8 @@
       <c r="D32" t="s">
         <v>278</v>
       </c>
-      <c r="E32" t="s">
-        <v>326</v>
+      <c r="E32" s="5">
+        <v>99115610</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2449,8 +1877,8 @@
       <c r="D33" t="s">
         <v>278</v>
       </c>
-      <c r="E33" t="s">
-        <v>327</v>
+      <c r="E33" s="5">
+        <v>99115620</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2466,8 +1894,8 @@
       <c r="D34" t="s">
         <v>278</v>
       </c>
-      <c r="E34" t="s">
-        <v>328</v>
+      <c r="E34" s="5">
+        <v>99115700</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2483,8 +1911,8 @@
       <c r="D35" t="s">
         <v>278</v>
       </c>
-      <c r="E35" t="s">
-        <v>329</v>
+      <c r="E35" s="5">
+        <v>99115800</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2500,8 +1928,8 @@
       <c r="D36" t="s">
         <v>278</v>
       </c>
-      <c r="E36" t="s">
-        <v>330</v>
+      <c r="E36" s="5">
+        <v>99115900</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2517,8 +1945,8 @@
       <c r="D37" t="s">
         <v>278</v>
       </c>
-      <c r="E37" t="s">
-        <v>331</v>
+      <c r="E37" s="5">
+        <v>99115999</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2534,8 +1962,8 @@
       <c r="D38" t="s">
         <v>278</v>
       </c>
-      <c r="E38" t="s">
-        <v>332</v>
+      <c r="E38" s="5">
+        <v>99116000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2551,8 +1979,8 @@
       <c r="D39" t="s">
         <v>278</v>
       </c>
-      <c r="E39" t="s">
-        <v>333</v>
+      <c r="E39" s="5">
+        <v>99116100</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2568,8 +1996,8 @@
       <c r="D40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" t="s">
-        <v>334</v>
+      <c r="E40" s="5">
+        <v>99116110</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2585,8 +2013,8 @@
       <c r="D41" t="s">
         <v>278</v>
       </c>
-      <c r="E41" t="s">
-        <v>335</v>
+      <c r="E41" s="5">
+        <v>99116120</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2602,8 +2030,8 @@
       <c r="D42" t="s">
         <v>278</v>
       </c>
-      <c r="E42" t="s">
-        <v>336</v>
+      <c r="E42" s="5">
+        <v>99116200</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2619,8 +2047,8 @@
       <c r="D43" t="s">
         <v>278</v>
       </c>
-      <c r="E43" t="s">
-        <v>337</v>
+      <c r="E43" s="5">
+        <v>99116210</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2636,8 +2064,8 @@
       <c r="D44" t="s">
         <v>278</v>
       </c>
-      <c r="E44" t="s">
-        <v>338</v>
+      <c r="E44" s="5">
+        <v>99116220</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2653,8 +2081,8 @@
       <c r="D45" t="s">
         <v>278</v>
       </c>
-      <c r="E45" t="s">
-        <v>339</v>
+      <c r="E45" s="5">
+        <v>99116230</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2670,8 +2098,8 @@
       <c r="D46" t="s">
         <v>278</v>
       </c>
-      <c r="E46" t="s">
-        <v>340</v>
+      <c r="E46" s="5">
+        <v>99116240</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2687,8 +2115,8 @@
       <c r="D47" t="s">
         <v>278</v>
       </c>
-      <c r="E47" t="s">
-        <v>341</v>
+      <c r="E47" s="5">
+        <v>99116250</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2704,8 +2132,8 @@
       <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="E48" t="s">
-        <v>342</v>
+      <c r="E48" s="5">
+        <v>99116300</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2721,8 +2149,8 @@
       <c r="D49" t="s">
         <v>278</v>
       </c>
-      <c r="E49" t="s">
-        <v>343</v>
+      <c r="E49" s="5">
+        <v>99116310</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2738,8 +2166,8 @@
       <c r="D50" t="s">
         <v>278</v>
       </c>
-      <c r="E50" t="s">
-        <v>344</v>
+      <c r="E50" s="5">
+        <v>99116320</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2755,8 +2183,8 @@
       <c r="D51" t="s">
         <v>295</v>
       </c>
-      <c r="E51" t="s">
-        <v>345</v>
+      <c r="E51" s="5">
+        <v>99200000</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2772,8 +2200,8 @@
       <c r="D52" t="s">
         <v>295</v>
       </c>
-      <c r="E52" t="s">
-        <v>346</v>
+      <c r="E52" s="5">
+        <v>99210000</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2789,8 +2217,8 @@
       <c r="D53" t="s">
         <v>295</v>
       </c>
-      <c r="E53" t="s">
-        <v>347</v>
+      <c r="E53" s="5">
+        <v>99211000</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2806,8 +2234,8 @@
       <c r="D54" t="s">
         <v>295</v>
       </c>
-      <c r="E54" t="s">
-        <v>348</v>
+      <c r="E54" s="5">
+        <v>99211100</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2823,8 +2251,8 @@
       <c r="D55" t="s">
         <v>295</v>
       </c>
-      <c r="E55" t="s">
-        <v>349</v>
+      <c r="E55" s="5">
+        <v>99211200</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2840,8 +2268,8 @@
       <c r="D56" t="s">
         <v>295</v>
       </c>
-      <c r="E56" t="s">
-        <v>350</v>
+      <c r="E56" s="5">
+        <v>99211210</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2857,8 +2285,8 @@
       <c r="D57" t="s">
         <v>295</v>
       </c>
-      <c r="E57" t="s">
-        <v>351</v>
+      <c r="E57" s="5">
+        <v>99211211</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2874,8 +2302,8 @@
       <c r="D58" t="s">
         <v>295</v>
       </c>
-      <c r="E58" t="s">
-        <v>352</v>
+      <c r="E58" s="5">
+        <v>99211212</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2891,8 +2319,8 @@
       <c r="D59" t="s">
         <v>295</v>
       </c>
-      <c r="E59" t="s">
-        <v>353</v>
+      <c r="E59" s="5">
+        <v>99211220</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2908,8 +2336,8 @@
       <c r="D60" t="s">
         <v>295</v>
       </c>
-      <c r="E60" t="s">
-        <v>354</v>
+      <c r="E60" s="5">
+        <v>99211300</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2925,8 +2353,8 @@
       <c r="D61" t="s">
         <v>295</v>
       </c>
-      <c r="E61" t="s">
-        <v>355</v>
+      <c r="E61" s="5">
+        <v>99211400</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2942,8 +2370,8 @@
       <c r="D62" t="s">
         <v>295</v>
       </c>
-      <c r="E62" t="s">
-        <v>356</v>
+      <c r="E62" s="5">
+        <v>99211500</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2959,8 +2387,8 @@
       <c r="D63" t="s">
         <v>295</v>
       </c>
-      <c r="E63" t="s">
-        <v>357</v>
+      <c r="E63" s="5">
+        <v>99211600</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2976,8 +2404,8 @@
       <c r="D64" t="s">
         <v>295</v>
       </c>
-      <c r="E64" t="s">
-        <v>358</v>
+      <c r="E64" s="5">
+        <v>99212000</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2993,8 +2421,8 @@
       <c r="D65" t="s">
         <v>295</v>
       </c>
-      <c r="E65" t="s">
-        <v>359</v>
+      <c r="E65" s="5">
+        <v>99213000</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3010,8 +2438,8 @@
       <c r="D66" t="s">
         <v>295</v>
       </c>
-      <c r="E66" t="s">
-        <v>360</v>
+      <c r="E66" s="5">
+        <v>99213100</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3027,8 +2455,8 @@
       <c r="D67" t="s">
         <v>295</v>
       </c>
-      <c r="E67" t="s">
-        <v>361</v>
+      <c r="E67" s="5">
+        <v>99213110</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3044,8 +2472,8 @@
       <c r="D68" t="s">
         <v>295</v>
       </c>
-      <c r="E68" t="s">
-        <v>362</v>
+      <c r="E68" s="5">
+        <v>99213111</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3061,8 +2489,8 @@
       <c r="D69" t="s">
         <v>295</v>
       </c>
-      <c r="E69" t="s">
-        <v>363</v>
+      <c r="E69" s="5">
+        <v>99213112</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3078,8 +2506,8 @@
       <c r="D70" t="s">
         <v>295</v>
       </c>
-      <c r="E70" t="s">
-        <v>364</v>
+      <c r="E70" s="5">
+        <v>99213120</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3095,8 +2523,8 @@
       <c r="D71" t="s">
         <v>295</v>
       </c>
-      <c r="E71" t="s">
-        <v>365</v>
+      <c r="E71" s="5">
+        <v>99213200</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3112,8 +2540,8 @@
       <c r="D72" t="s">
         <v>295</v>
       </c>
-      <c r="E72" t="s">
-        <v>366</v>
+      <c r="E72" s="5">
+        <v>99214000</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3129,8 +2557,8 @@
       <c r="D73" t="s">
         <v>295</v>
       </c>
-      <c r="E73" t="s">
-        <v>367</v>
+      <c r="E73" s="5">
+        <v>99214100</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3146,8 +2574,8 @@
       <c r="D74" t="s">
         <v>295</v>
       </c>
-      <c r="E74" t="s">
-        <v>368</v>
+      <c r="E74" s="5">
+        <v>99214200</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3163,8 +2591,8 @@
       <c r="D75" t="s">
         <v>295</v>
       </c>
-      <c r="E75" t="s">
-        <v>369</v>
+      <c r="E75" s="5">
+        <v>99215000</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3180,8 +2608,8 @@
       <c r="D76" t="s">
         <v>295</v>
       </c>
-      <c r="E76" t="s">
-        <v>370</v>
+      <c r="E76" s="5">
+        <v>99215100</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3197,8 +2625,8 @@
       <c r="D77" t="s">
         <v>295</v>
       </c>
-      <c r="E77" t="s">
-        <v>371</v>
+      <c r="E77" s="5">
+        <v>99215200</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3214,8 +2642,8 @@
       <c r="D78" t="s">
         <v>295</v>
       </c>
-      <c r="E78" t="s">
-        <v>372</v>
+      <c r="E78" s="5">
+        <v>99215300</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3231,8 +2659,8 @@
       <c r="D79" t="s">
         <v>295</v>
       </c>
-      <c r="E79" t="s">
-        <v>373</v>
+      <c r="E79" s="5">
+        <v>99215400</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3248,8 +2676,8 @@
       <c r="D80" t="s">
         <v>295</v>
       </c>
-      <c r="E80" t="s">
-        <v>374</v>
+      <c r="E80" s="5">
+        <v>99215500</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3265,8 +2693,8 @@
       <c r="D81" t="s">
         <v>295</v>
       </c>
-      <c r="E81" t="s">
-        <v>375</v>
+      <c r="E81" s="5">
+        <v>99215510</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3282,8 +2710,8 @@
       <c r="D82" t="s">
         <v>295</v>
       </c>
-      <c r="E82" t="s">
-        <v>376</v>
+      <c r="E82" s="5">
+        <v>99215520</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3299,8 +2727,8 @@
       <c r="D83" t="s">
         <v>295</v>
       </c>
-      <c r="E83" t="s">
-        <v>377</v>
+      <c r="E83" s="5">
+        <v>99215600</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3316,8 +2744,8 @@
       <c r="D84" t="s">
         <v>295</v>
       </c>
-      <c r="E84" t="s">
-        <v>378</v>
+      <c r="E84" s="5">
+        <v>99215700</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3333,8 +2761,8 @@
       <c r="D85" t="s">
         <v>295</v>
       </c>
-      <c r="E85" t="s">
-        <v>379</v>
+      <c r="E85" s="5">
+        <v>99215800</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3350,8 +2778,8 @@
       <c r="D86" t="s">
         <v>295</v>
       </c>
-      <c r="E86" t="s">
-        <v>380</v>
+      <c r="E86" s="5">
+        <v>99215900</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3367,8 +2795,8 @@
       <c r="D87" t="s">
         <v>295</v>
       </c>
-      <c r="E87" t="s">
-        <v>381</v>
+      <c r="E87" s="5">
+        <v>99220000</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3384,8 +2812,8 @@
       <c r="D88" t="s">
         <v>295</v>
       </c>
-      <c r="E88" t="s">
-        <v>382</v>
+      <c r="E88" s="5">
+        <v>99221000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3401,8 +2829,8 @@
       <c r="D89" t="s">
         <v>295</v>
       </c>
-      <c r="E89" t="s">
-        <v>383</v>
+      <c r="E89" s="5">
+        <v>99221100</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3418,8 +2846,8 @@
       <c r="D90" t="s">
         <v>295</v>
       </c>
-      <c r="E90" t="s">
-        <v>384</v>
+      <c r="E90" s="5">
+        <v>99221200</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3435,8 +2863,8 @@
       <c r="D91" t="s">
         <v>295</v>
       </c>
-      <c r="E91" t="s">
-        <v>385</v>
+      <c r="E91" s="5">
+        <v>99222000</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3452,8 +2880,8 @@
       <c r="D92" t="s">
         <v>295</v>
       </c>
-      <c r="E92" t="s">
-        <v>386</v>
+      <c r="E92" s="5">
+        <v>99222100</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3469,8 +2897,8 @@
       <c r="D93" t="s">
         <v>295</v>
       </c>
-      <c r="E93" t="s">
-        <v>387</v>
+      <c r="E93" s="5">
+        <v>99222200</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3486,8 +2914,8 @@
       <c r="D94" t="s">
         <v>295</v>
       </c>
-      <c r="E94" t="s">
-        <v>388</v>
+      <c r="E94" s="5">
+        <v>99222300</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3503,8 +2931,8 @@
       <c r="D95" t="s">
         <v>295</v>
       </c>
-      <c r="E95" t="s">
-        <v>389</v>
+      <c r="E95" s="5">
+        <v>99222400</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3520,8 +2948,8 @@
       <c r="D96" t="s">
         <v>295</v>
       </c>
-      <c r="E96" t="s">
-        <v>390</v>
+      <c r="E96" s="5">
+        <v>99222500</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3537,8 +2965,8 @@
       <c r="D97" t="s">
         <v>295</v>
       </c>
-      <c r="E97" t="s">
-        <v>391</v>
+      <c r="E97" s="5">
+        <v>99230000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3554,8 +2982,8 @@
       <c r="D98" t="s">
         <v>295</v>
       </c>
-      <c r="E98" t="s">
-        <v>392</v>
+      <c r="E98" s="5">
+        <v>99231000</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3571,8 +2999,8 @@
       <c r="D99" t="s">
         <v>295</v>
       </c>
-      <c r="E99" t="s">
-        <v>393</v>
+      <c r="E99" s="5">
+        <v>99231100</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3588,8 +3016,8 @@
       <c r="D100" t="s">
         <v>295</v>
       </c>
-      <c r="E100" t="s">
-        <v>394</v>
+      <c r="E100" s="5">
+        <v>99231200</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3605,8 +3033,8 @@
       <c r="D101" t="s">
         <v>278</v>
       </c>
-      <c r="E101" t="s">
-        <v>395</v>
+      <c r="E101" s="5">
+        <v>99300000</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3622,8 +3050,8 @@
       <c r="D102" t="s">
         <v>278</v>
       </c>
-      <c r="E102" t="s">
-        <v>396</v>
+      <c r="E102" s="5">
+        <v>99310000</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3639,8 +3067,8 @@
       <c r="D103" t="s">
         <v>278</v>
       </c>
-      <c r="E103" t="s">
-        <v>397</v>
+      <c r="E103" s="5">
+        <v>99311000</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3656,8 +3084,8 @@
       <c r="D104" t="s">
         <v>278</v>
       </c>
-      <c r="E104" t="s">
-        <v>398</v>
+      <c r="E104" s="5">
+        <v>99311100</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3673,8 +3101,8 @@
       <c r="D105" t="s">
         <v>278</v>
       </c>
-      <c r="E105" t="s">
-        <v>399</v>
+      <c r="E105" s="5">
+        <v>99311200</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3690,8 +3118,8 @@
       <c r="D106" t="s">
         <v>278</v>
       </c>
-      <c r="E106" t="s">
-        <v>400</v>
+      <c r="E106" s="5">
+        <v>99311300</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3707,8 +3135,8 @@
       <c r="D107" t="s">
         <v>278</v>
       </c>
-      <c r="E107" t="s">
-        <v>401</v>
+      <c r="E107" s="5">
+        <v>99311310</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3724,8 +3152,8 @@
       <c r="D108" t="s">
         <v>278</v>
       </c>
-      <c r="E108" t="s">
-        <v>402</v>
+      <c r="E108" s="5">
+        <v>99311320</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3741,8 +3169,8 @@
       <c r="D109" t="s">
         <v>278</v>
       </c>
-      <c r="E109" t="s">
-        <v>403</v>
+      <c r="E109" s="5">
+        <v>99311400</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3758,8 +3186,8 @@
       <c r="D110" t="s">
         <v>278</v>
       </c>
-      <c r="E110" t="s">
-        <v>404</v>
+      <c r="E110" s="5">
+        <v>99311500</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3775,8 +3203,8 @@
       <c r="D111" t="s">
         <v>278</v>
       </c>
-      <c r="E111" t="s">
-        <v>405</v>
+      <c r="E111" s="5">
+        <v>99311600</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3792,8 +3220,8 @@
       <c r="D112" t="s">
         <v>278</v>
       </c>
-      <c r="E112" t="s">
-        <v>406</v>
+      <c r="E112" s="5">
+        <v>99312000</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3809,8 +3237,8 @@
       <c r="D113" t="s">
         <v>278</v>
       </c>
-      <c r="E113" t="s">
-        <v>407</v>
+      <c r="E113" s="5">
+        <v>99312100</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3826,8 +3254,8 @@
       <c r="D114" t="s">
         <v>278</v>
       </c>
-      <c r="E114" t="s">
-        <v>408</v>
+      <c r="E114" s="5">
+        <v>99312200</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3843,8 +3271,8 @@
       <c r="D115" t="s">
         <v>278</v>
       </c>
-      <c r="E115" t="s">
-        <v>409</v>
+      <c r="E115" s="5">
+        <v>99312210</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3860,8 +3288,8 @@
       <c r="D116" t="s">
         <v>278</v>
       </c>
-      <c r="E116" t="s">
-        <v>410</v>
+      <c r="E116" s="5">
+        <v>99312220</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3877,8 +3305,8 @@
       <c r="D117" t="s">
         <v>278</v>
       </c>
-      <c r="E117" t="s">
-        <v>411</v>
+      <c r="E117" s="5">
+        <v>99312300</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3894,8 +3322,8 @@
       <c r="D118" t="s">
         <v>278</v>
       </c>
-      <c r="E118" t="s">
-        <v>412</v>
+      <c r="E118" s="5">
+        <v>99312400</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3911,8 +3339,8 @@
       <c r="D119" t="s">
         <v>278</v>
       </c>
-      <c r="E119" t="s">
-        <v>413</v>
+      <c r="E119" s="5">
+        <v>99312500</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3928,8 +3356,8 @@
       <c r="D120" t="s">
         <v>278</v>
       </c>
-      <c r="E120" t="s">
-        <v>414</v>
+      <c r="E120" s="5">
+        <v>99312600</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3945,8 +3373,8 @@
       <c r="D121" t="s">
         <v>278</v>
       </c>
-      <c r="E121" t="s">
-        <v>415</v>
+      <c r="E121" s="5">
+        <v>99313000</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3962,8 +3390,8 @@
       <c r="D122" t="s">
         <v>278</v>
       </c>
-      <c r="E122" t="s">
-        <v>416</v>
+      <c r="E122" s="5">
+        <v>99313100</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3979,8 +3407,8 @@
       <c r="D123" t="s">
         <v>278</v>
       </c>
-      <c r="E123" t="s">
-        <v>417</v>
+      <c r="E123" s="5">
+        <v>99313110</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3996,8 +3424,8 @@
       <c r="D124" t="s">
         <v>278</v>
       </c>
-      <c r="E124" t="s">
-        <v>418</v>
+      <c r="E124" s="5">
+        <v>99313120</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4013,8 +3441,8 @@
       <c r="D125" t="s">
         <v>278</v>
       </c>
-      <c r="E125" t="s">
-        <v>419</v>
+      <c r="E125" s="5">
+        <v>99313200</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4030,8 +3458,8 @@
       <c r="D126" t="s">
         <v>278</v>
       </c>
-      <c r="E126" t="s">
-        <v>420</v>
+      <c r="E126" s="5">
+        <v>99313300</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4047,8 +3475,8 @@
       <c r="D127" t="s">
         <v>278</v>
       </c>
-      <c r="E127" t="s">
-        <v>421</v>
+      <c r="E127" s="5">
+        <v>99313400</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4064,8 +3492,8 @@
       <c r="D128" t="s">
         <v>278</v>
       </c>
-      <c r="E128" t="s">
-        <v>422</v>
+      <c r="E128" s="5">
+        <v>99313500</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4081,8 +3509,8 @@
       <c r="D129" t="s">
         <v>278</v>
       </c>
-      <c r="E129" t="s">
-        <v>423</v>
+      <c r="E129" s="5">
+        <v>99314000</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4098,8 +3526,8 @@
       <c r="D130" t="s">
         <v>278</v>
       </c>
-      <c r="E130" t="s">
-        <v>424</v>
+      <c r="E130" s="5">
+        <v>99314100</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4115,8 +3543,8 @@
       <c r="D131" t="s">
         <v>278</v>
       </c>
-      <c r="E131" t="s">
-        <v>425</v>
+      <c r="E131" s="5">
+        <v>99314110</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4132,8 +3560,8 @@
       <c r="D132" t="s">
         <v>278</v>
       </c>
-      <c r="E132" t="s">
-        <v>426</v>
+      <c r="E132" s="5">
+        <v>99314120</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4149,8 +3577,8 @@
       <c r="D133" t="s">
         <v>278</v>
       </c>
-      <c r="E133" t="s">
-        <v>427</v>
+      <c r="E133" s="5">
+        <v>99314200</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4166,8 +3594,8 @@
       <c r="D134" t="s">
         <v>278</v>
       </c>
-      <c r="E134" t="s">
-        <v>428</v>
+      <c r="E134" s="5">
+        <v>99314210</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4183,8 +3611,8 @@
       <c r="D135" t="s">
         <v>278</v>
       </c>
-      <c r="E135" t="s">
-        <v>429</v>
+      <c r="E135" s="5">
+        <v>99314220</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4200,8 +3628,8 @@
       <c r="D136" t="s">
         <v>278</v>
       </c>
-      <c r="E136" t="s">
-        <v>430</v>
+      <c r="E136" s="5">
+        <v>99314300</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4217,8 +3645,8 @@
       <c r="D137" t="s">
         <v>278</v>
       </c>
-      <c r="E137" t="s">
-        <v>431</v>
+      <c r="E137" s="5">
+        <v>99314310</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4234,8 +3662,8 @@
       <c r="D138" t="s">
         <v>278</v>
       </c>
-      <c r="E138" t="s">
-        <v>432</v>
+      <c r="E138" s="5">
+        <v>99314320</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4251,8 +3679,8 @@
       <c r="D139" t="s">
         <v>278</v>
       </c>
-      <c r="E139" t="s">
-        <v>433</v>
+      <c r="E139" s="5">
+        <v>99314400</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4268,8 +3696,8 @@
       <c r="D140" t="s">
         <v>278</v>
       </c>
-      <c r="E140" t="s">
-        <v>434</v>
+      <c r="E140" s="5">
+        <v>99314500</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4285,8 +3713,8 @@
       <c r="D141" t="s">
         <v>278</v>
       </c>
-      <c r="E141" t="s">
-        <v>435</v>
+      <c r="E141" s="5">
+        <v>99314600</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4302,8 +3730,8 @@
       <c r="D142" t="s">
         <v>278</v>
       </c>
-      <c r="E142" t="s">
-        <v>436</v>
+      <c r="E142" s="5">
+        <v>99314610</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4319,8 +3747,8 @@
       <c r="D143" t="s">
         <v>278</v>
       </c>
-      <c r="E143" t="s">
-        <v>437</v>
+      <c r="E143" s="5">
+        <v>99314620</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4336,8 +3764,8 @@
       <c r="D144" t="s">
         <v>278</v>
       </c>
-      <c r="E144" t="s">
-        <v>438</v>
+      <c r="E144" s="5">
+        <v>99314700</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4353,8 +3781,8 @@
       <c r="D145" t="s">
         <v>278</v>
       </c>
-      <c r="E145" t="s">
-        <v>439</v>
+      <c r="E145" s="5">
+        <v>99315000</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4370,8 +3798,8 @@
       <c r="D146" t="s">
         <v>278</v>
       </c>
-      <c r="E146" t="s">
-        <v>440</v>
+      <c r="E146" s="5">
+        <v>99320000</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4387,8 +3815,8 @@
       <c r="D147" t="s">
         <v>295</v>
       </c>
-      <c r="E147" t="s">
-        <v>441</v>
+      <c r="E147" s="5">
+        <v>99400000</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4404,8 +3832,8 @@
       <c r="D148" t="s">
         <v>295</v>
       </c>
-      <c r="E148" t="s">
-        <v>442</v>
+      <c r="E148" s="5">
+        <v>99410000</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4421,8 +3849,8 @@
       <c r="D149" t="s">
         <v>295</v>
       </c>
-      <c r="E149" t="s">
-        <v>443</v>
+      <c r="E149" s="5">
+        <v>99411000</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4438,8 +3866,8 @@
       <c r="D150" t="s">
         <v>295</v>
       </c>
-      <c r="E150" t="s">
-        <v>444</v>
+      <c r="E150" s="5">
+        <v>99411100</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4455,8 +3883,8 @@
       <c r="D151" t="s">
         <v>295</v>
       </c>
-      <c r="E151" t="s">
-        <v>445</v>
+      <c r="E151" s="5">
+        <v>99411200</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4472,8 +3900,8 @@
       <c r="D152" t="s">
         <v>295</v>
       </c>
-      <c r="E152" t="s">
-        <v>446</v>
+      <c r="E152" s="5">
+        <v>99411300</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4489,8 +3917,8 @@
       <c r="D153" t="s">
         <v>295</v>
       </c>
-      <c r="E153" t="s">
-        <v>447</v>
+      <c r="E153" s="5">
+        <v>99411310</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4506,8 +3934,8 @@
       <c r="D154" t="s">
         <v>295</v>
       </c>
-      <c r="E154" t="s">
-        <v>448</v>
+      <c r="E154" s="5">
+        <v>99411320</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4523,8 +3951,8 @@
       <c r="D155" t="s">
         <v>295</v>
       </c>
-      <c r="E155" t="s">
-        <v>449</v>
+      <c r="E155" s="5">
+        <v>99411400</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4540,8 +3968,8 @@
       <c r="D156" t="s">
         <v>295</v>
       </c>
-      <c r="E156" t="s">
-        <v>450</v>
+      <c r="E156" s="5">
+        <v>99411500</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4557,8 +3985,8 @@
       <c r="D157" t="s">
         <v>295</v>
       </c>
-      <c r="E157" t="s">
-        <v>451</v>
+      <c r="E157" s="5">
+        <v>99411600</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4574,8 +4002,8 @@
       <c r="D158" t="s">
         <v>295</v>
       </c>
-      <c r="E158" t="s">
-        <v>452</v>
+      <c r="E158" s="5">
+        <v>99412000</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4591,8 +4019,8 @@
       <c r="D159" t="s">
         <v>295</v>
       </c>
-      <c r="E159" t="s">
-        <v>453</v>
+      <c r="E159" s="5">
+        <v>99412100</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4608,8 +4036,8 @@
       <c r="D160" t="s">
         <v>295</v>
       </c>
-      <c r="E160" t="s">
-        <v>454</v>
+      <c r="E160" s="5">
+        <v>99412200</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4625,8 +4053,8 @@
       <c r="D161" t="s">
         <v>295</v>
       </c>
-      <c r="E161" t="s">
-        <v>455</v>
+      <c r="E161" s="5">
+        <v>99412210</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4642,8 +4070,8 @@
       <c r="D162" t="s">
         <v>295</v>
       </c>
-      <c r="E162" t="s">
-        <v>456</v>
+      <c r="E162" s="5">
+        <v>99412220</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4659,8 +4087,8 @@
       <c r="D163" t="s">
         <v>295</v>
       </c>
-      <c r="E163" t="s">
-        <v>457</v>
+      <c r="E163" s="5">
+        <v>99412300</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4676,8 +4104,8 @@
       <c r="D164" t="s">
         <v>295</v>
       </c>
-      <c r="E164" t="s">
-        <v>458</v>
+      <c r="E164" s="5">
+        <v>99412400</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4693,8 +4121,8 @@
       <c r="D165" t="s">
         <v>295</v>
       </c>
-      <c r="E165" t="s">
-        <v>459</v>
+      <c r="E165" s="5">
+        <v>99412500</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4710,8 +4138,8 @@
       <c r="D166" t="s">
         <v>295</v>
       </c>
-      <c r="E166" t="s">
-        <v>460</v>
+      <c r="E166" s="5">
+        <v>99412600</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4727,8 +4155,8 @@
       <c r="D167" t="s">
         <v>295</v>
       </c>
-      <c r="E167" t="s">
-        <v>461</v>
+      <c r="E167" s="5">
+        <v>99413000</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4744,8 +4172,8 @@
       <c r="D168" t="s">
         <v>295</v>
       </c>
-      <c r="E168" t="s">
-        <v>462</v>
+      <c r="E168" s="5">
+        <v>99413100</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4761,8 +4189,8 @@
       <c r="D169" t="s">
         <v>295</v>
       </c>
-      <c r="E169" t="s">
-        <v>463</v>
+      <c r="E169" s="5">
+        <v>99413110</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4778,8 +4206,8 @@
       <c r="D170" t="s">
         <v>295</v>
       </c>
-      <c r="E170" t="s">
-        <v>464</v>
+      <c r="E170" s="5">
+        <v>99413120</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4795,8 +4223,8 @@
       <c r="D171" t="s">
         <v>295</v>
       </c>
-      <c r="E171" t="s">
-        <v>465</v>
+      <c r="E171" s="5">
+        <v>99413200</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4812,8 +4240,8 @@
       <c r="D172" t="s">
         <v>295</v>
       </c>
-      <c r="E172" t="s">
-        <v>466</v>
+      <c r="E172" s="5">
+        <v>99413300</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4829,8 +4257,8 @@
       <c r="D173" t="s">
         <v>295</v>
       </c>
-      <c r="E173" t="s">
-        <v>467</v>
+      <c r="E173" s="5">
+        <v>99413400</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4846,8 +4274,8 @@
       <c r="D174" t="s">
         <v>295</v>
       </c>
-      <c r="E174" t="s">
-        <v>468</v>
+      <c r="E174" s="5">
+        <v>99413500</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4863,8 +4291,8 @@
       <c r="D175" t="s">
         <v>295</v>
       </c>
-      <c r="E175" t="s">
-        <v>469</v>
+      <c r="E175" s="5">
+        <v>99414000</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4880,8 +4308,8 @@
       <c r="D176" t="s">
         <v>295</v>
       </c>
-      <c r="E176" t="s">
-        <v>470</v>
+      <c r="E176" s="5">
+        <v>99414100</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4897,8 +4325,8 @@
       <c r="D177" t="s">
         <v>295</v>
       </c>
-      <c r="E177" t="s">
-        <v>471</v>
+      <c r="E177" s="5">
+        <v>99414110</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4914,8 +4342,8 @@
       <c r="D178" t="s">
         <v>295</v>
       </c>
-      <c r="E178" t="s">
-        <v>472</v>
+      <c r="E178" s="5">
+        <v>99414120</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4931,8 +4359,8 @@
       <c r="D179" t="s">
         <v>295</v>
       </c>
-      <c r="E179" t="s">
-        <v>473</v>
+      <c r="E179" s="5">
+        <v>99414200</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4948,8 +4376,8 @@
       <c r="D180" t="s">
         <v>295</v>
       </c>
-      <c r="E180" t="s">
-        <v>474</v>
+      <c r="E180" s="5">
+        <v>99414210</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4965,8 +4393,8 @@
       <c r="D181" t="s">
         <v>295</v>
       </c>
-      <c r="E181" t="s">
-        <v>475</v>
+      <c r="E181" s="5">
+        <v>99414220</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4982,8 +4410,8 @@
       <c r="D182" t="s">
         <v>295</v>
       </c>
-      <c r="E182" t="s">
-        <v>476</v>
+      <c r="E182" s="5">
+        <v>99414300</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4999,8 +4427,8 @@
       <c r="D183" t="s">
         <v>295</v>
       </c>
-      <c r="E183" t="s">
-        <v>477</v>
+      <c r="E183" s="5">
+        <v>99414310</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5016,8 +4444,8 @@
       <c r="D184" t="s">
         <v>295</v>
       </c>
-      <c r="E184" t="s">
-        <v>478</v>
+      <c r="E184" s="5">
+        <v>99414320</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5033,8 +4461,8 @@
       <c r="D185" t="s">
         <v>295</v>
       </c>
-      <c r="E185" t="s">
-        <v>479</v>
+      <c r="E185" s="5">
+        <v>99414400</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5050,8 +4478,8 @@
       <c r="D186" t="s">
         <v>295</v>
       </c>
-      <c r="E186" t="s">
-        <v>480</v>
+      <c r="E186" s="5">
+        <v>99414500</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5067,8 +4495,8 @@
       <c r="D187" t="s">
         <v>295</v>
       </c>
-      <c r="E187" t="s">
-        <v>481</v>
+      <c r="E187" s="5">
+        <v>99414600</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5084,8 +4512,8 @@
       <c r="D188" t="s">
         <v>295</v>
       </c>
-      <c r="E188" t="s">
-        <v>482</v>
+      <c r="E188" s="5">
+        <v>99414610</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5101,8 +4529,8 @@
       <c r="D189" t="s">
         <v>295</v>
       </c>
-      <c r="E189" t="s">
-        <v>483</v>
+      <c r="E189" s="5">
+        <v>99414620</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5118,8 +4546,8 @@
       <c r="D190" t="s">
         <v>295</v>
       </c>
-      <c r="E190" t="s">
-        <v>484</v>
+      <c r="E190" s="5">
+        <v>99414700</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5135,8 +4563,8 @@
       <c r="D191" t="s">
         <v>295</v>
       </c>
-      <c r="E191" t="s">
-        <v>485</v>
+      <c r="E191" s="5">
+        <v>99415000</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5152,8 +4580,8 @@
       <c r="D192" t="s">
         <v>295</v>
       </c>
-      <c r="E192" t="s">
-        <v>486</v>
+      <c r="E192" s="5">
+        <v>99420000</v>
       </c>
     </row>
   </sheetData>

--- a/investment dictionary.xlsx
+++ b/investment dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68330D9-275A-7644-B2B1-C13D2C40E304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2413CE7-AB44-D041-8730-B0CCB4CB88A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="820" windowWidth="42280" windowHeight="34660" xr2:uid="{0F44D3E6-F285-C344-9A66-5814EE0BA308}"/>
   </bookViews>
@@ -983,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -991,7 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,7 +1309,7 @@
   <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E192"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0.3"/>
@@ -1350,8 +1349,8 @@
       <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="5">
-        <v>99100000</v>
+      <c r="E2">
+        <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1367,8 +1366,8 @@
       <c r="D3" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="5">
-        <v>99110000</v>
+      <c r="E3">
+        <v>9911</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1384,8 +1383,8 @@
       <c r="D4" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="5">
-        <v>99111000</v>
+      <c r="E4">
+        <v>99111</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1401,8 +1400,8 @@
       <c r="D5" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="5">
-        <v>99111100</v>
+      <c r="E5">
+        <v>991111</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1418,8 +1417,8 @@
       <c r="D6" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="5">
-        <v>99111200</v>
+      <c r="E6">
+        <v>991112</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1435,8 +1434,8 @@
       <c r="D7" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="5">
-        <v>99111210</v>
+      <c r="E7">
+        <v>9911121</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1452,7 +1451,7 @@
       <c r="D8" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>99111211</v>
       </c>
     </row>
@@ -1469,7 +1468,7 @@
       <c r="D9" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>99111212</v>
       </c>
     </row>
@@ -1486,8 +1485,8 @@
       <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="5">
-        <v>99111220</v>
+      <c r="E10">
+        <v>9911122</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1503,8 +1502,8 @@
       <c r="D11" t="s">
         <v>278</v>
       </c>
-      <c r="E11" s="5">
-        <v>99111300</v>
+      <c r="E11">
+        <v>991113</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1520,8 +1519,8 @@
       <c r="D12" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="5">
-        <v>99111400</v>
+      <c r="E12">
+        <v>991114</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1537,8 +1536,8 @@
       <c r="D13" t="s">
         <v>278</v>
       </c>
-      <c r="E13" s="5">
-        <v>99111500</v>
+      <c r="E13">
+        <v>991115</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1554,8 +1553,8 @@
       <c r="D14" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="5">
-        <v>99111600</v>
+      <c r="E14">
+        <v>991116</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1571,8 +1570,8 @@
       <c r="D15" t="s">
         <v>278</v>
       </c>
-      <c r="E15" s="5">
-        <v>99112000</v>
+      <c r="E15">
+        <v>99112</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1588,8 +1587,8 @@
       <c r="D16" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="5">
-        <v>99113000</v>
+      <c r="E16">
+        <v>99113</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1605,8 +1604,8 @@
       <c r="D17" t="s">
         <v>278</v>
       </c>
-      <c r="E17" s="5">
-        <v>99113100</v>
+      <c r="E17">
+        <v>991131</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1622,8 +1621,8 @@
       <c r="D18" t="s">
         <v>278</v>
       </c>
-      <c r="E18" s="5">
-        <v>99113110</v>
+      <c r="E18">
+        <v>9911311</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1639,7 +1638,7 @@
       <c r="D19" t="s">
         <v>278</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>99113111</v>
       </c>
     </row>
@@ -1656,7 +1655,7 @@
       <c r="D20" t="s">
         <v>278</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
         <v>99113112</v>
       </c>
     </row>
@@ -1673,8 +1672,8 @@
       <c r="D21" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="5">
-        <v>99113120</v>
+      <c r="E21">
+        <v>9911312</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1690,8 +1689,8 @@
       <c r="D22" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="5">
-        <v>99113200</v>
+      <c r="E22">
+        <v>991132</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1707,8 +1706,8 @@
       <c r="D23" t="s">
         <v>278</v>
       </c>
-      <c r="E23" s="5">
-        <v>99114000</v>
+      <c r="E23">
+        <v>99114</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1724,8 +1723,8 @@
       <c r="D24" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="5">
-        <v>99114100</v>
+      <c r="E24">
+        <v>991141</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1741,8 +1740,8 @@
       <c r="D25" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="5">
-        <v>99114200</v>
+      <c r="E25">
+        <v>991142</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1758,8 +1757,8 @@
       <c r="D26" t="s">
         <v>278</v>
       </c>
-      <c r="E26" s="5">
-        <v>99115000</v>
+      <c r="E26">
+        <v>99115</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1775,8 +1774,8 @@
       <c r="D27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="5">
-        <v>99115100</v>
+      <c r="E27">
+        <v>991151</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1792,8 +1791,8 @@
       <c r="D28" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="5">
-        <v>99115200</v>
+      <c r="E28">
+        <v>991152</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1809,8 +1808,8 @@
       <c r="D29" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="5">
-        <v>99115300</v>
+      <c r="E29">
+        <v>991153</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1826,8 +1825,8 @@
       <c r="D30" t="s">
         <v>278</v>
       </c>
-      <c r="E30" s="5">
-        <v>99115400</v>
+      <c r="E30">
+        <v>991154</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1843,8 +1842,8 @@
       <c r="D31" t="s">
         <v>278</v>
       </c>
-      <c r="E31" s="5">
-        <v>99115600</v>
+      <c r="E31">
+        <v>991156</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1860,8 +1859,8 @@
       <c r="D32" t="s">
         <v>278</v>
       </c>
-      <c r="E32" s="5">
-        <v>99115610</v>
+      <c r="E32">
+        <v>9911561</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1877,8 +1876,8 @@
       <c r="D33" t="s">
         <v>278</v>
       </c>
-      <c r="E33" s="5">
-        <v>99115620</v>
+      <c r="E33">
+        <v>9911562</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1894,8 +1893,8 @@
       <c r="D34" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="5">
-        <v>99115700</v>
+      <c r="E34">
+        <v>991157</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1911,8 +1910,8 @@
       <c r="D35" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="5">
-        <v>99115800</v>
+      <c r="E35">
+        <v>991158</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1928,8 +1927,8 @@
       <c r="D36" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="5">
-        <v>99115900</v>
+      <c r="E36">
+        <v>991159</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1945,7 +1944,7 @@
       <c r="D37" t="s">
         <v>278</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37">
         <v>99115999</v>
       </c>
     </row>
@@ -1962,8 +1961,8 @@
       <c r="D38" t="s">
         <v>278</v>
       </c>
-      <c r="E38" s="5">
-        <v>99116000</v>
+      <c r="E38">
+        <v>99116</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1979,8 +1978,8 @@
       <c r="D39" t="s">
         <v>278</v>
       </c>
-      <c r="E39" s="5">
-        <v>99116100</v>
+      <c r="E39">
+        <v>991161</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1996,8 +1995,8 @@
       <c r="D40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" s="5">
-        <v>99116110</v>
+      <c r="E40">
+        <v>9911611</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2013,8 +2012,8 @@
       <c r="D41" t="s">
         <v>278</v>
       </c>
-      <c r="E41" s="5">
-        <v>99116120</v>
+      <c r="E41">
+        <v>9911612</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2030,8 +2029,8 @@
       <c r="D42" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="5">
-        <v>99116200</v>
+      <c r="E42">
+        <v>991162</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2047,8 +2046,8 @@
       <c r="D43" t="s">
         <v>278</v>
       </c>
-      <c r="E43" s="5">
-        <v>99116210</v>
+      <c r="E43">
+        <v>9911621</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2064,8 +2063,8 @@
       <c r="D44" t="s">
         <v>278</v>
       </c>
-      <c r="E44" s="5">
-        <v>99116220</v>
+      <c r="E44">
+        <v>9911622</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2081,8 +2080,8 @@
       <c r="D45" t="s">
         <v>278</v>
       </c>
-      <c r="E45" s="5">
-        <v>99116230</v>
+      <c r="E45">
+        <v>9911623</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2098,8 +2097,8 @@
       <c r="D46" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="5">
-        <v>99116240</v>
+      <c r="E46">
+        <v>9911624</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2115,8 +2114,8 @@
       <c r="D47" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="5">
-        <v>99116250</v>
+      <c r="E47">
+        <v>9911625</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2132,8 +2131,8 @@
       <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="5">
-        <v>99116300</v>
+      <c r="E48">
+        <v>991163</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2149,8 +2148,8 @@
       <c r="D49" t="s">
         <v>278</v>
       </c>
-      <c r="E49" s="5">
-        <v>99116310</v>
+      <c r="E49">
+        <v>9911631</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2166,8 +2165,8 @@
       <c r="D50" t="s">
         <v>278</v>
       </c>
-      <c r="E50" s="5">
-        <v>99116320</v>
+      <c r="E50">
+        <v>9911632</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2183,8 +2182,8 @@
       <c r="D51" t="s">
         <v>295</v>
       </c>
-      <c r="E51" s="5">
-        <v>99200000</v>
+      <c r="E51">
+        <v>992</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2200,8 +2199,8 @@
       <c r="D52" t="s">
         <v>295</v>
       </c>
-      <c r="E52" s="5">
-        <v>99210000</v>
+      <c r="E52">
+        <v>9921</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2217,8 +2216,8 @@
       <c r="D53" t="s">
         <v>295</v>
       </c>
-      <c r="E53" s="5">
-        <v>99211000</v>
+      <c r="E53">
+        <v>99211</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2234,8 +2233,8 @@
       <c r="D54" t="s">
         <v>295</v>
       </c>
-      <c r="E54" s="5">
-        <v>99211100</v>
+      <c r="E54">
+        <v>992111</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2251,8 +2250,8 @@
       <c r="D55" t="s">
         <v>295</v>
       </c>
-      <c r="E55" s="5">
-        <v>99211200</v>
+      <c r="E55">
+        <v>992112</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2268,8 +2267,8 @@
       <c r="D56" t="s">
         <v>295</v>
       </c>
-      <c r="E56" s="5">
-        <v>99211210</v>
+      <c r="E56">
+        <v>9921121</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2285,7 +2284,7 @@
       <c r="D57" t="s">
         <v>295</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57">
         <v>99211211</v>
       </c>
     </row>
@@ -2302,7 +2301,7 @@
       <c r="D58" t="s">
         <v>295</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58">
         <v>99211212</v>
       </c>
     </row>
@@ -2319,8 +2318,8 @@
       <c r="D59" t="s">
         <v>295</v>
       </c>
-      <c r="E59" s="5">
-        <v>99211220</v>
+      <c r="E59">
+        <v>9921122</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2336,8 +2335,8 @@
       <c r="D60" t="s">
         <v>295</v>
       </c>
-      <c r="E60" s="5">
-        <v>99211300</v>
+      <c r="E60">
+        <v>992113</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2353,8 +2352,8 @@
       <c r="D61" t="s">
         <v>295</v>
       </c>
-      <c r="E61" s="5">
-        <v>99211400</v>
+      <c r="E61">
+        <v>992114</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2370,8 +2369,8 @@
       <c r="D62" t="s">
         <v>295</v>
       </c>
-      <c r="E62" s="5">
-        <v>99211500</v>
+      <c r="E62">
+        <v>992115</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2387,8 +2386,8 @@
       <c r="D63" t="s">
         <v>295</v>
       </c>
-      <c r="E63" s="5">
-        <v>99211600</v>
+      <c r="E63">
+        <v>992116</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2404,8 +2403,8 @@
       <c r="D64" t="s">
         <v>295</v>
       </c>
-      <c r="E64" s="5">
-        <v>99212000</v>
+      <c r="E64">
+        <v>99212</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2421,8 +2420,8 @@
       <c r="D65" t="s">
         <v>295</v>
       </c>
-      <c r="E65" s="5">
-        <v>99213000</v>
+      <c r="E65">
+        <v>99213</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2438,8 +2437,8 @@
       <c r="D66" t="s">
         <v>295</v>
       </c>
-      <c r="E66" s="5">
-        <v>99213100</v>
+      <c r="E66">
+        <v>992131</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2455,8 +2454,8 @@
       <c r="D67" t="s">
         <v>295</v>
       </c>
-      <c r="E67" s="5">
-        <v>99213110</v>
+      <c r="E67">
+        <v>9921311</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2472,7 +2471,7 @@
       <c r="D68" t="s">
         <v>295</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68">
         <v>99213111</v>
       </c>
     </row>
@@ -2489,7 +2488,7 @@
       <c r="D69" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69">
         <v>99213112</v>
       </c>
     </row>
@@ -2506,8 +2505,8 @@
       <c r="D70" t="s">
         <v>295</v>
       </c>
-      <c r="E70" s="5">
-        <v>99213120</v>
+      <c r="E70">
+        <v>9921312</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2523,8 +2522,8 @@
       <c r="D71" t="s">
         <v>295</v>
       </c>
-      <c r="E71" s="5">
-        <v>99213200</v>
+      <c r="E71">
+        <v>992132</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2540,8 +2539,8 @@
       <c r="D72" t="s">
         <v>295</v>
       </c>
-      <c r="E72" s="5">
-        <v>99214000</v>
+      <c r="E72">
+        <v>99214</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2557,8 +2556,8 @@
       <c r="D73" t="s">
         <v>295</v>
       </c>
-      <c r="E73" s="5">
-        <v>99214100</v>
+      <c r="E73">
+        <v>992141</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2574,8 +2573,8 @@
       <c r="D74" t="s">
         <v>295</v>
       </c>
-      <c r="E74" s="5">
-        <v>99214200</v>
+      <c r="E74">
+        <v>992142</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2591,8 +2590,8 @@
       <c r="D75" t="s">
         <v>295</v>
       </c>
-      <c r="E75" s="5">
-        <v>99215000</v>
+      <c r="E75">
+        <v>99215</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2608,8 +2607,8 @@
       <c r="D76" t="s">
         <v>295</v>
       </c>
-      <c r="E76" s="5">
-        <v>99215100</v>
+      <c r="E76">
+        <v>992151</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2625,8 +2624,8 @@
       <c r="D77" t="s">
         <v>295</v>
       </c>
-      <c r="E77" s="5">
-        <v>99215200</v>
+      <c r="E77">
+        <v>992152</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2642,8 +2641,8 @@
       <c r="D78" t="s">
         <v>295</v>
       </c>
-      <c r="E78" s="5">
-        <v>99215300</v>
+      <c r="E78">
+        <v>992153</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2659,8 +2658,8 @@
       <c r="D79" t="s">
         <v>295</v>
       </c>
-      <c r="E79" s="5">
-        <v>99215400</v>
+      <c r="E79">
+        <v>992154</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2676,8 +2675,8 @@
       <c r="D80" t="s">
         <v>295</v>
       </c>
-      <c r="E80" s="5">
-        <v>99215500</v>
+      <c r="E80">
+        <v>992155</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2693,8 +2692,8 @@
       <c r="D81" t="s">
         <v>295</v>
       </c>
-      <c r="E81" s="5">
-        <v>99215510</v>
+      <c r="E81">
+        <v>9921551</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2710,8 +2709,8 @@
       <c r="D82" t="s">
         <v>295</v>
       </c>
-      <c r="E82" s="5">
-        <v>99215520</v>
+      <c r="E82">
+        <v>9921552</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2727,8 +2726,8 @@
       <c r="D83" t="s">
         <v>295</v>
       </c>
-      <c r="E83" s="5">
-        <v>99215600</v>
+      <c r="E83">
+        <v>992156</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2744,8 +2743,8 @@
       <c r="D84" t="s">
         <v>295</v>
       </c>
-      <c r="E84" s="5">
-        <v>99215700</v>
+      <c r="E84">
+        <v>992157</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2761,8 +2760,8 @@
       <c r="D85" t="s">
         <v>295</v>
       </c>
-      <c r="E85" s="5">
-        <v>99215800</v>
+      <c r="E85">
+        <v>992158</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2778,8 +2777,8 @@
       <c r="D86" t="s">
         <v>295</v>
       </c>
-      <c r="E86" s="5">
-        <v>99215900</v>
+      <c r="E86">
+        <v>992159</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2795,8 +2794,8 @@
       <c r="D87" t="s">
         <v>295</v>
       </c>
-      <c r="E87" s="5">
-        <v>99220000</v>
+      <c r="E87">
+        <v>9922</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2812,8 +2811,8 @@
       <c r="D88" t="s">
         <v>295</v>
       </c>
-      <c r="E88" s="5">
-        <v>99221000</v>
+      <c r="E88">
+        <v>99221</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2829,8 +2828,8 @@
       <c r="D89" t="s">
         <v>295</v>
       </c>
-      <c r="E89" s="5">
-        <v>99221100</v>
+      <c r="E89">
+        <v>992211</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2846,8 +2845,8 @@
       <c r="D90" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="5">
-        <v>99221200</v>
+      <c r="E90">
+        <v>992212</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2863,8 +2862,8 @@
       <c r="D91" t="s">
         <v>295</v>
       </c>
-      <c r="E91" s="5">
-        <v>99222000</v>
+      <c r="E91">
+        <v>99222</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2880,8 +2879,8 @@
       <c r="D92" t="s">
         <v>295</v>
       </c>
-      <c r="E92" s="5">
-        <v>99222100</v>
+      <c r="E92">
+        <v>992221</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2897,8 +2896,8 @@
       <c r="D93" t="s">
         <v>295</v>
       </c>
-      <c r="E93" s="5">
-        <v>99222200</v>
+      <c r="E93">
+        <v>992222</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2914,8 +2913,8 @@
       <c r="D94" t="s">
         <v>295</v>
       </c>
-      <c r="E94" s="5">
-        <v>99222300</v>
+      <c r="E94">
+        <v>992223</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2931,8 +2930,8 @@
       <c r="D95" t="s">
         <v>295</v>
       </c>
-      <c r="E95" s="5">
-        <v>99222400</v>
+      <c r="E95">
+        <v>992224</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2948,8 +2947,8 @@
       <c r="D96" t="s">
         <v>295</v>
       </c>
-      <c r="E96" s="5">
-        <v>99222500</v>
+      <c r="E96">
+        <v>992225</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2965,8 +2964,8 @@
       <c r="D97" t="s">
         <v>295</v>
       </c>
-      <c r="E97" s="5">
-        <v>99230000</v>
+      <c r="E97">
+        <v>9923</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2982,8 +2981,8 @@
       <c r="D98" t="s">
         <v>295</v>
       </c>
-      <c r="E98" s="5">
-        <v>99231000</v>
+      <c r="E98">
+        <v>99231</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2999,8 +2998,8 @@
       <c r="D99" t="s">
         <v>295</v>
       </c>
-      <c r="E99" s="5">
-        <v>99231100</v>
+      <c r="E99">
+        <v>992311</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3016,8 +3015,8 @@
       <c r="D100" t="s">
         <v>295</v>
       </c>
-      <c r="E100" s="5">
-        <v>99231200</v>
+      <c r="E100">
+        <v>992312</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3033,8 +3032,8 @@
       <c r="D101" t="s">
         <v>278</v>
       </c>
-      <c r="E101" s="5">
-        <v>99300000</v>
+      <c r="E101">
+        <v>993</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3050,8 +3049,8 @@
       <c r="D102" t="s">
         <v>278</v>
       </c>
-      <c r="E102" s="5">
-        <v>99310000</v>
+      <c r="E102">
+        <v>9931</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3067,8 +3066,8 @@
       <c r="D103" t="s">
         <v>278</v>
       </c>
-      <c r="E103" s="5">
-        <v>99311000</v>
+      <c r="E103">
+        <v>99311</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3084,8 +3083,8 @@
       <c r="D104" t="s">
         <v>278</v>
       </c>
-      <c r="E104" s="5">
-        <v>99311100</v>
+      <c r="E104">
+        <v>993111</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3101,8 +3100,8 @@
       <c r="D105" t="s">
         <v>278</v>
       </c>
-      <c r="E105" s="5">
-        <v>99311200</v>
+      <c r="E105">
+        <v>993112</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3118,8 +3117,8 @@
       <c r="D106" t="s">
         <v>278</v>
       </c>
-      <c r="E106" s="5">
-        <v>99311300</v>
+      <c r="E106">
+        <v>993113</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3135,8 +3134,8 @@
       <c r="D107" t="s">
         <v>278</v>
       </c>
-      <c r="E107" s="5">
-        <v>99311310</v>
+      <c r="E107">
+        <v>9931131</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3152,8 +3151,8 @@
       <c r="D108" t="s">
         <v>278</v>
       </c>
-      <c r="E108" s="5">
-        <v>99311320</v>
+      <c r="E108">
+        <v>9931132</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3169,8 +3168,8 @@
       <c r="D109" t="s">
         <v>278</v>
       </c>
-      <c r="E109" s="5">
-        <v>99311400</v>
+      <c r="E109">
+        <v>993114</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3186,8 +3185,8 @@
       <c r="D110" t="s">
         <v>278</v>
       </c>
-      <c r="E110" s="5">
-        <v>99311500</v>
+      <c r="E110">
+        <v>993115</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3203,8 +3202,8 @@
       <c r="D111" t="s">
         <v>278</v>
       </c>
-      <c r="E111" s="5">
-        <v>99311600</v>
+      <c r="E111">
+        <v>993116</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3220,8 +3219,8 @@
       <c r="D112" t="s">
         <v>278</v>
       </c>
-      <c r="E112" s="5">
-        <v>99312000</v>
+      <c r="E112">
+        <v>99312</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3237,8 +3236,8 @@
       <c r="D113" t="s">
         <v>278</v>
       </c>
-      <c r="E113" s="5">
-        <v>99312100</v>
+      <c r="E113">
+        <v>993121</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3254,8 +3253,8 @@
       <c r="D114" t="s">
         <v>278</v>
       </c>
-      <c r="E114" s="5">
-        <v>99312200</v>
+      <c r="E114">
+        <v>993122</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3271,8 +3270,8 @@
       <c r="D115" t="s">
         <v>278</v>
       </c>
-      <c r="E115" s="5">
-        <v>99312210</v>
+      <c r="E115">
+        <v>9931221</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3288,8 +3287,8 @@
       <c r="D116" t="s">
         <v>278</v>
       </c>
-      <c r="E116" s="5">
-        <v>99312220</v>
+      <c r="E116">
+        <v>9931222</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3305,8 +3304,8 @@
       <c r="D117" t="s">
         <v>278</v>
       </c>
-      <c r="E117" s="5">
-        <v>99312300</v>
+      <c r="E117">
+        <v>993123</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3322,8 +3321,8 @@
       <c r="D118" t="s">
         <v>278</v>
       </c>
-      <c r="E118" s="5">
-        <v>99312400</v>
+      <c r="E118">
+        <v>993124</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3339,8 +3338,8 @@
       <c r="D119" t="s">
         <v>278</v>
       </c>
-      <c r="E119" s="5">
-        <v>99312500</v>
+      <c r="E119">
+        <v>993125</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3356,8 +3355,8 @@
       <c r="D120" t="s">
         <v>278</v>
       </c>
-      <c r="E120" s="5">
-        <v>99312600</v>
+      <c r="E120">
+        <v>993126</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3373,8 +3372,8 @@
       <c r="D121" t="s">
         <v>278</v>
       </c>
-      <c r="E121" s="5">
-        <v>99313000</v>
+      <c r="E121">
+        <v>99313</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3390,8 +3389,8 @@
       <c r="D122" t="s">
         <v>278</v>
       </c>
-      <c r="E122" s="5">
-        <v>99313100</v>
+      <c r="E122">
+        <v>993131</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3407,8 +3406,8 @@
       <c r="D123" t="s">
         <v>278</v>
       </c>
-      <c r="E123" s="5">
-        <v>99313110</v>
+      <c r="E123">
+        <v>9931311</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3424,8 +3423,8 @@
       <c r="D124" t="s">
         <v>278</v>
       </c>
-      <c r="E124" s="5">
-        <v>99313120</v>
+      <c r="E124">
+        <v>9931312</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3441,8 +3440,8 @@
       <c r="D125" t="s">
         <v>278</v>
       </c>
-      <c r="E125" s="5">
-        <v>99313200</v>
+      <c r="E125">
+        <v>993132</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3458,8 +3457,8 @@
       <c r="D126" t="s">
         <v>278</v>
       </c>
-      <c r="E126" s="5">
-        <v>99313300</v>
+      <c r="E126">
+        <v>993133</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3475,8 +3474,8 @@
       <c r="D127" t="s">
         <v>278</v>
       </c>
-      <c r="E127" s="5">
-        <v>99313400</v>
+      <c r="E127">
+        <v>993134</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3492,8 +3491,8 @@
       <c r="D128" t="s">
         <v>278</v>
       </c>
-      <c r="E128" s="5">
-        <v>99313500</v>
+      <c r="E128">
+        <v>993135</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3509,8 +3508,8 @@
       <c r="D129" t="s">
         <v>278</v>
       </c>
-      <c r="E129" s="5">
-        <v>99314000</v>
+      <c r="E129">
+        <v>99314</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3526,8 +3525,8 @@
       <c r="D130" t="s">
         <v>278</v>
       </c>
-      <c r="E130" s="5">
-        <v>99314100</v>
+      <c r="E130">
+        <v>993141</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3543,8 +3542,8 @@
       <c r="D131" t="s">
         <v>278</v>
       </c>
-      <c r="E131" s="5">
-        <v>99314110</v>
+      <c r="E131">
+        <v>9931411</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3560,8 +3559,8 @@
       <c r="D132" t="s">
         <v>278</v>
       </c>
-      <c r="E132" s="5">
-        <v>99314120</v>
+      <c r="E132">
+        <v>9931412</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3577,8 +3576,8 @@
       <c r="D133" t="s">
         <v>278</v>
       </c>
-      <c r="E133" s="5">
-        <v>99314200</v>
+      <c r="E133">
+        <v>993142</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3594,8 +3593,8 @@
       <c r="D134" t="s">
         <v>278</v>
       </c>
-      <c r="E134" s="5">
-        <v>99314210</v>
+      <c r="E134">
+        <v>9931421</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3611,8 +3610,8 @@
       <c r="D135" t="s">
         <v>278</v>
       </c>
-      <c r="E135" s="5">
-        <v>99314220</v>
+      <c r="E135">
+        <v>9931422</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3628,8 +3627,8 @@
       <c r="D136" t="s">
         <v>278</v>
       </c>
-      <c r="E136" s="5">
-        <v>99314300</v>
+      <c r="E136">
+        <v>993143</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3645,8 +3644,8 @@
       <c r="D137" t="s">
         <v>278</v>
       </c>
-      <c r="E137" s="5">
-        <v>99314310</v>
+      <c r="E137">
+        <v>9931431</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3662,8 +3661,8 @@
       <c r="D138" t="s">
         <v>278</v>
       </c>
-      <c r="E138" s="5">
-        <v>99314320</v>
+      <c r="E138">
+        <v>9931432</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3679,8 +3678,8 @@
       <c r="D139" t="s">
         <v>278</v>
       </c>
-      <c r="E139" s="5">
-        <v>99314400</v>
+      <c r="E139">
+        <v>993144</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3696,8 +3695,8 @@
       <c r="D140" t="s">
         <v>278</v>
       </c>
-      <c r="E140" s="5">
-        <v>99314500</v>
+      <c r="E140">
+        <v>993145</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3713,8 +3712,8 @@
       <c r="D141" t="s">
         <v>278</v>
       </c>
-      <c r="E141" s="5">
-        <v>99314600</v>
+      <c r="E141">
+        <v>993146</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3730,8 +3729,8 @@
       <c r="D142" t="s">
         <v>278</v>
       </c>
-      <c r="E142" s="5">
-        <v>99314610</v>
+      <c r="E142">
+        <v>9931461</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3747,8 +3746,8 @@
       <c r="D143" t="s">
         <v>278</v>
       </c>
-      <c r="E143" s="5">
-        <v>99314620</v>
+      <c r="E143">
+        <v>9931462</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3764,8 +3763,8 @@
       <c r="D144" t="s">
         <v>278</v>
       </c>
-      <c r="E144" s="5">
-        <v>99314700</v>
+      <c r="E144">
+        <v>993147</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3781,8 +3780,8 @@
       <c r="D145" t="s">
         <v>278</v>
       </c>
-      <c r="E145" s="5">
-        <v>99315000</v>
+      <c r="E145">
+        <v>99315</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3798,8 +3797,8 @@
       <c r="D146" t="s">
         <v>278</v>
       </c>
-      <c r="E146" s="5">
-        <v>99320000</v>
+      <c r="E146">
+        <v>9932</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3815,8 +3814,8 @@
       <c r="D147" t="s">
         <v>295</v>
       </c>
-      <c r="E147" s="5">
-        <v>99400000</v>
+      <c r="E147">
+        <v>994</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3832,8 +3831,8 @@
       <c r="D148" t="s">
         <v>295</v>
       </c>
-      <c r="E148" s="5">
-        <v>99410000</v>
+      <c r="E148">
+        <v>9941</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3849,8 +3848,8 @@
       <c r="D149" t="s">
         <v>295</v>
       </c>
-      <c r="E149" s="5">
-        <v>99411000</v>
+      <c r="E149">
+        <v>99411</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3866,8 +3865,8 @@
       <c r="D150" t="s">
         <v>295</v>
       </c>
-      <c r="E150" s="5">
-        <v>99411100</v>
+      <c r="E150">
+        <v>994111</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3883,8 +3882,8 @@
       <c r="D151" t="s">
         <v>295</v>
       </c>
-      <c r="E151" s="5">
-        <v>99411200</v>
+      <c r="E151">
+        <v>994112</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3900,8 +3899,8 @@
       <c r="D152" t="s">
         <v>295</v>
       </c>
-      <c r="E152" s="5">
-        <v>99411300</v>
+      <c r="E152">
+        <v>994113</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3917,8 +3916,8 @@
       <c r="D153" t="s">
         <v>295</v>
       </c>
-      <c r="E153" s="5">
-        <v>99411310</v>
+      <c r="E153">
+        <v>9941131</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3934,8 +3933,8 @@
       <c r="D154" t="s">
         <v>295</v>
       </c>
-      <c r="E154" s="5">
-        <v>99411320</v>
+      <c r="E154">
+        <v>9941132</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3951,8 +3950,8 @@
       <c r="D155" t="s">
         <v>295</v>
       </c>
-      <c r="E155" s="5">
-        <v>99411400</v>
+      <c r="E155">
+        <v>994114</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3968,8 +3967,8 @@
       <c r="D156" t="s">
         <v>295</v>
       </c>
-      <c r="E156" s="5">
-        <v>99411500</v>
+      <c r="E156">
+        <v>994115</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3985,8 +3984,8 @@
       <c r="D157" t="s">
         <v>295</v>
       </c>
-      <c r="E157" s="5">
-        <v>99411600</v>
+      <c r="E157">
+        <v>994116</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4002,8 +4001,8 @@
       <c r="D158" t="s">
         <v>295</v>
       </c>
-      <c r="E158" s="5">
-        <v>99412000</v>
+      <c r="E158">
+        <v>99412</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4019,8 +4018,8 @@
       <c r="D159" t="s">
         <v>295</v>
       </c>
-      <c r="E159" s="5">
-        <v>99412100</v>
+      <c r="E159">
+        <v>994121</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4036,8 +4035,8 @@
       <c r="D160" t="s">
         <v>295</v>
       </c>
-      <c r="E160" s="5">
-        <v>99412200</v>
+      <c r="E160">
+        <v>994122</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4053,8 +4052,8 @@
       <c r="D161" t="s">
         <v>295</v>
       </c>
-      <c r="E161" s="5">
-        <v>99412210</v>
+      <c r="E161">
+        <v>9941221</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4070,8 +4069,8 @@
       <c r="D162" t="s">
         <v>295</v>
       </c>
-      <c r="E162" s="5">
-        <v>99412220</v>
+      <c r="E162">
+        <v>9941222</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4087,8 +4086,8 @@
       <c r="D163" t="s">
         <v>295</v>
       </c>
-      <c r="E163" s="5">
-        <v>99412300</v>
+      <c r="E163">
+        <v>994123</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4104,8 +4103,8 @@
       <c r="D164" t="s">
         <v>295</v>
       </c>
-      <c r="E164" s="5">
-        <v>99412400</v>
+      <c r="E164">
+        <v>994124</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4121,8 +4120,8 @@
       <c r="D165" t="s">
         <v>295</v>
       </c>
-      <c r="E165" s="5">
-        <v>99412500</v>
+      <c r="E165">
+        <v>994125</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4138,8 +4137,8 @@
       <c r="D166" t="s">
         <v>295</v>
       </c>
-      <c r="E166" s="5">
-        <v>99412600</v>
+      <c r="E166">
+        <v>994126</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4155,8 +4154,8 @@
       <c r="D167" t="s">
         <v>295</v>
       </c>
-      <c r="E167" s="5">
-        <v>99413000</v>
+      <c r="E167">
+        <v>99413</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4172,8 +4171,8 @@
       <c r="D168" t="s">
         <v>295</v>
       </c>
-      <c r="E168" s="5">
-        <v>99413100</v>
+      <c r="E168">
+        <v>994131</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4189,8 +4188,8 @@
       <c r="D169" t="s">
         <v>295</v>
       </c>
-      <c r="E169" s="5">
-        <v>99413110</v>
+      <c r="E169">
+        <v>9941311</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4206,8 +4205,8 @@
       <c r="D170" t="s">
         <v>295</v>
       </c>
-      <c r="E170" s="5">
-        <v>99413120</v>
+      <c r="E170">
+        <v>9941312</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4223,8 +4222,8 @@
       <c r="D171" t="s">
         <v>295</v>
       </c>
-      <c r="E171" s="5">
-        <v>99413200</v>
+      <c r="E171">
+        <v>994132</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4240,8 +4239,8 @@
       <c r="D172" t="s">
         <v>295</v>
       </c>
-      <c r="E172" s="5">
-        <v>99413300</v>
+      <c r="E172">
+        <v>994133</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4257,8 +4256,8 @@
       <c r="D173" t="s">
         <v>295</v>
       </c>
-      <c r="E173" s="5">
-        <v>99413400</v>
+      <c r="E173">
+        <v>994134</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4274,8 +4273,8 @@
       <c r="D174" t="s">
         <v>295</v>
       </c>
-      <c r="E174" s="5">
-        <v>99413500</v>
+      <c r="E174">
+        <v>994135</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4291,8 +4290,8 @@
       <c r="D175" t="s">
         <v>295</v>
       </c>
-      <c r="E175" s="5">
-        <v>99414000</v>
+      <c r="E175">
+        <v>99414</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4308,8 +4307,8 @@
       <c r="D176" t="s">
         <v>295</v>
       </c>
-      <c r="E176" s="5">
-        <v>99414100</v>
+      <c r="E176">
+        <v>994141</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4325,8 +4324,8 @@
       <c r="D177" t="s">
         <v>295</v>
       </c>
-      <c r="E177" s="5">
-        <v>99414110</v>
+      <c r="E177">
+        <v>9941411</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4342,8 +4341,8 @@
       <c r="D178" t="s">
         <v>295</v>
       </c>
-      <c r="E178" s="5">
-        <v>99414120</v>
+      <c r="E178">
+        <v>9941412</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4359,8 +4358,8 @@
       <c r="D179" t="s">
         <v>295</v>
       </c>
-      <c r="E179" s="5">
-        <v>99414200</v>
+      <c r="E179">
+        <v>994142</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4376,8 +4375,8 @@
       <c r="D180" t="s">
         <v>295</v>
       </c>
-      <c r="E180" s="5">
-        <v>99414210</v>
+      <c r="E180">
+        <v>9941421</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4393,8 +4392,8 @@
       <c r="D181" t="s">
         <v>295</v>
       </c>
-      <c r="E181" s="5">
-        <v>99414220</v>
+      <c r="E181">
+        <v>9941422</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4410,8 +4409,8 @@
       <c r="D182" t="s">
         <v>295</v>
       </c>
-      <c r="E182" s="5">
-        <v>99414300</v>
+      <c r="E182">
+        <v>994143</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4427,8 +4426,8 @@
       <c r="D183" t="s">
         <v>295</v>
       </c>
-      <c r="E183" s="5">
-        <v>99414310</v>
+      <c r="E183">
+        <v>9941431</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4444,8 +4443,8 @@
       <c r="D184" t="s">
         <v>295</v>
       </c>
-      <c r="E184" s="5">
-        <v>99414320</v>
+      <c r="E184">
+        <v>9941432</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4461,8 +4460,8 @@
       <c r="D185" t="s">
         <v>295</v>
       </c>
-      <c r="E185" s="5">
-        <v>99414400</v>
+      <c r="E185">
+        <v>994144</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4478,8 +4477,8 @@
       <c r="D186" t="s">
         <v>295</v>
       </c>
-      <c r="E186" s="5">
-        <v>99414500</v>
+      <c r="E186">
+        <v>994145</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4495,8 +4494,8 @@
       <c r="D187" t="s">
         <v>295</v>
       </c>
-      <c r="E187" s="5">
-        <v>99414600</v>
+      <c r="E187">
+        <v>994146</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4512,8 +4511,8 @@
       <c r="D188" t="s">
         <v>295</v>
       </c>
-      <c r="E188" s="5">
-        <v>99414610</v>
+      <c r="E188">
+        <v>9941461</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4529,8 +4528,8 @@
       <c r="D189" t="s">
         <v>295</v>
       </c>
-      <c r="E189" s="5">
-        <v>99414620</v>
+      <c r="E189">
+        <v>9941462</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4546,8 +4545,8 @@
       <c r="D190" t="s">
         <v>295</v>
       </c>
-      <c r="E190" s="5">
-        <v>99414700</v>
+      <c r="E190">
+        <v>994147</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4563,8 +4562,8 @@
       <c r="D191" t="s">
         <v>295</v>
       </c>
-      <c r="E191" s="5">
-        <v>99415000</v>
+      <c r="E191">
+        <v>99415</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4580,8 +4579,8 @@
       <c r="D192" t="s">
         <v>295</v>
       </c>
-      <c r="E192" s="5">
-        <v>99420000</v>
+      <c r="E192">
+        <v>9942</v>
       </c>
     </row>
   </sheetData>

--- a/investment dictionary.xlsx
+++ b/investment dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2413CE7-AB44-D041-8730-B0CCB4CB88A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526FA66A-093E-424F-A23E-B4AB89D4B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="820" windowWidth="42280" windowHeight="34660" xr2:uid="{0F44D3E6-F285-C344-9A66-5814EE0BA308}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0.3"/>
@@ -1962,7 +1962,7 @@
         <v>278</v>
       </c>
       <c r="E38">
-        <v>99116</v>
+        <v>9912</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1979,7 +1979,7 @@
         <v>278</v>
       </c>
       <c r="E39">
-        <v>991161</v>
+        <v>99121</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1996,7 +1996,7 @@
         <v>278</v>
       </c>
       <c r="E40">
-        <v>9911611</v>
+        <v>991211</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2013,7 +2013,7 @@
         <v>278</v>
       </c>
       <c r="E41">
-        <v>9911612</v>
+        <v>991212</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2030,7 +2030,7 @@
         <v>278</v>
       </c>
       <c r="E42">
-        <v>991162</v>
+        <v>99122</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2047,7 +2047,7 @@
         <v>278</v>
       </c>
       <c r="E43">
-        <v>9911621</v>
+        <v>991221</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2064,7 +2064,7 @@
         <v>278</v>
       </c>
       <c r="E44">
-        <v>9911622</v>
+        <v>991222</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2081,7 +2081,7 @@
         <v>278</v>
       </c>
       <c r="E45">
-        <v>9911623</v>
+        <v>991223</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2098,7 +2098,7 @@
         <v>278</v>
       </c>
       <c r="E46">
-        <v>9911624</v>
+        <v>991224</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2115,7 +2115,7 @@
         <v>278</v>
       </c>
       <c r="E47">
-        <v>9911625</v>
+        <v>991225</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2132,7 +2132,7 @@
         <v>278</v>
       </c>
       <c r="E48">
-        <v>991163</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2149,7 +2149,7 @@
         <v>278</v>
       </c>
       <c r="E49">
-        <v>9911631</v>
+        <v>99991</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2166,7 +2166,7 @@
         <v>278</v>
       </c>
       <c r="E50">
-        <v>9911632</v>
+        <v>99992</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
